--- a/src/data/locations.xlsx
+++ b/src/data/locations.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1473">
   <si>
     <t>VN-Ministop</t>
   </si>
@@ -4512,177 +4512,6 @@
   </si>
   <si>
     <t>106.7306010</t>
-  </si>
-  <si>
-    <t>24/07/2017</t>
-  </si>
-  <si>
-    <t>11/01/2018</t>
-  </si>
-  <si>
-    <t>17/03/2018</t>
-  </si>
-  <si>
-    <t>30/03/2018</t>
-  </si>
-  <si>
-    <t>05/05/2018</t>
-  </si>
-  <si>
-    <t>07/05/2018</t>
-  </si>
-  <si>
-    <t>11/09/2017</t>
-  </si>
-  <si>
-    <t>05/01/2018</t>
-  </si>
-  <si>
-    <t>20/04/2018</t>
-  </si>
-  <si>
-    <t>11/07/2017</t>
-  </si>
-  <si>
-    <t>17/10/2017</t>
-  </si>
-  <si>
-    <t>18/01/2018</t>
-  </si>
-  <si>
-    <t>23/03/2018</t>
-  </si>
-  <si>
-    <t>04/04/2018</t>
-  </si>
-  <si>
-    <t>25/04/2018</t>
-  </si>
-  <si>
-    <t>22/09/2017</t>
-  </si>
-  <si>
-    <t>08/12/2017</t>
-  </si>
-  <si>
-    <t>16/03/2018</t>
-  </si>
-  <si>
-    <t>06/04/2018</t>
-  </si>
-  <si>
-    <t>13/04/2018</t>
-  </si>
-  <si>
-    <t>02/03/2018</t>
-  </si>
-  <si>
-    <t>00/01/1900</t>
-  </si>
-  <si>
-    <t>03/10/2017</t>
-  </si>
-  <si>
-    <t>07/12/2017</t>
-  </si>
-  <si>
-    <t>29/12/2017</t>
-  </si>
-  <si>
-    <t>10/03/2018</t>
-  </si>
-  <si>
-    <t>31/03/2018</t>
-  </si>
-  <si>
-    <t>28/04/2018</t>
-  </si>
-  <si>
-    <t>14/08/2017</t>
-  </si>
-  <si>
-    <t>21/10/2017</t>
-  </si>
-  <si>
-    <t>19/04/2018</t>
-  </si>
-  <si>
-    <t>18/09/2017</t>
-  </si>
-  <si>
-    <t>02/12/2017</t>
-  </si>
-  <si>
-    <t>04/05/2018</t>
-  </si>
-  <si>
-    <t>14/09/2017</t>
-  </si>
-  <si>
-    <t>15/09/2017</t>
-  </si>
-  <si>
-    <t>06/10/2017</t>
-  </si>
-  <si>
-    <t>25/11/2017</t>
-  </si>
-  <si>
-    <t>24/03/2018</t>
-  </si>
-  <si>
-    <t>11/04/2018</t>
-  </si>
-  <si>
-    <t>26/04/2018</t>
-  </si>
-  <si>
-    <t>08/05/2018</t>
-  </si>
-  <si>
-    <t>12/10/2017</t>
-  </si>
-  <si>
-    <t>21/09/2017</t>
-  </si>
-  <si>
-    <t>31/10/2017</t>
-  </si>
-  <si>
-    <t>18/11/2017</t>
-  </si>
-  <si>
-    <t>08/03/2018</t>
-  </si>
-  <si>
-    <t>05/04/2018</t>
-  </si>
-  <si>
-    <t>29/03/2018</t>
-  </si>
-  <si>
-    <t>27/04/2018</t>
-  </si>
-  <si>
-    <t>10/04/2018</t>
-  </si>
-  <si>
-    <t>18/08/2017</t>
-  </si>
-  <si>
-    <t>01/09/2017</t>
-  </si>
-  <si>
-    <t>04/11/2017</t>
-  </si>
-  <si>
-    <t>28/03/2018</t>
-  </si>
-  <si>
-    <t>04/01/2017</t>
-  </si>
-  <si>
-    <t>18/04/2018</t>
   </si>
 </sst>
 </file>
@@ -4754,12 +4583,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4769,7 +4611,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
@@ -4780,6 +4622,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5383,15 +5238,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B221"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20" style="14" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -5516,11 +5371,12 @@
       <c r="A2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1473</v>
+      <c r="B2" s="9" t="str">
+        <f>TEXT(C2, "mm/dd/yyy")</f>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C2" s="10">
+        <v>42940</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>53</v>
@@ -5588,11 +5444,12 @@
       <c r="A3" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1473</v>
+      <c r="B3" s="9" t="str">
+        <f t="shared" ref="B3:B66" si="0">TEXT(C3, "mm/dd/yyy")</f>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C3" s="10">
+        <v>42940</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>53</v>
@@ -5660,11 +5517,12 @@
       <c r="A4" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1473</v>
+      <c r="B4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C4" s="10">
+        <v>42940</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>53</v>
@@ -5730,11 +5588,12 @@
       <c r="A5" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1474</v>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01/11/2018</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43111</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>286</v>
@@ -5800,11 +5659,12 @@
       <c r="A6" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1475</v>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43176</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>354</v>
@@ -5870,11 +5730,12 @@
       <c r="A7" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1476</v>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/30/2018</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43189</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>445</v>
@@ -5938,11 +5799,12 @@
       <c r="A8" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1476</v>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/30/2018</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43189</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>445</v>
@@ -6006,11 +5868,12 @@
       <c r="A9" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1476</v>
+      <c r="B9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/30/2018</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43189</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>445</v>
@@ -6074,11 +5937,12 @@
       <c r="A10" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1477</v>
+      <c r="B10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43225</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>665</v>
@@ -6142,11 +6006,12 @@
       <c r="A11" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1478</v>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43227</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>733</v>
@@ -6212,11 +6077,12 @@
       <c r="A12" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1479</v>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>09/11/2017</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42989</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -6282,11 +6148,12 @@
       <c r="A13" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1480</v>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01/05/2018</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43105</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -6352,11 +6219,12 @@
       <c r="A14" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1481</v>
+      <c r="B14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43210</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>582</v>
@@ -6420,11 +6288,12 @@
       <c r="A15" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1482</v>
+      <c r="B15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07/11/2017</v>
+      </c>
+      <c r="C15" s="10">
+        <v>42927</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
@@ -6490,11 +6359,12 @@
       <c r="A16" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1483</v>
+      <c r="B16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10/17/2017</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43025</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>193</v>
@@ -6560,11 +6430,12 @@
       <c r="A17" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>1484</v>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01/18/2018</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43118</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>290</v>
@@ -6632,11 +6503,12 @@
       <c r="A18" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1485</v>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43182</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>406</v>
@@ -6700,11 +6572,12 @@
       <c r="A19" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>1486</v>
+      <c r="B19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/04/2018</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43194</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>501</v>
@@ -6768,11 +6641,12 @@
       <c r="A20" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>1487</v>
+      <c r="B20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/25/2018</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43215</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>627</v>
@@ -6791,7 +6665,7 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>4</v>
@@ -6836,11 +6710,12 @@
       <c r="A21" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1477</v>
+      <c r="B21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43225</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>665</v>
@@ -6904,11 +6779,12 @@
       <c r="A22" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1488</v>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>09/22/2017</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43000</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>133</v>
@@ -6974,11 +6850,12 @@
       <c r="A23" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1489</v>
+      <c r="B23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>12/08/2017</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43077</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>270</v>
@@ -7044,11 +6921,12 @@
       <c r="A24" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1473</v>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C24" s="10">
+        <v>42940</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>53</v>
@@ -7114,11 +6992,12 @@
       <c r="A25" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1490</v>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43175</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>354</v>
@@ -7182,11 +7061,12 @@
       <c r="A26" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>1491</v>
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43196</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>501</v>
@@ -7250,11 +7130,12 @@
       <c r="A27" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>1478</v>
+      <c r="B27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43227</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>733</v>
@@ -7320,11 +7201,12 @@
       <c r="A28" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>1490</v>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43175</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>354</v>
@@ -7388,11 +7270,12 @@
       <c r="A29" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>1492</v>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C29" s="12">
+        <v>43203</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>544</v>
@@ -7456,11 +7339,12 @@
       <c r="A30" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1492</v>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C30" s="12">
+        <v>43203</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>544</v>
@@ -7524,11 +7408,12 @@
       <c r="A31" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>1477</v>
+      <c r="B31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43225</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>665</v>
@@ -7592,11 +7477,12 @@
       <c r="A32" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>1479</v>
+      <c r="B32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>09/11/2017</v>
+      </c>
+      <c r="C32" s="10">
+        <v>42989</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>106</v>
@@ -7662,11 +7548,12 @@
       <c r="A33" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>1493</v>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/02/2018</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43161</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>297</v>
@@ -7732,12 +7619,11 @@
       <c r="A34" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>1494</v>
-      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01/00/1900</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="4" t="s">
         <v>279</v>
       </c>
@@ -7800,11 +7686,12 @@
       <c r="A35" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>1487</v>
+      <c r="B35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/25/2018</v>
+      </c>
+      <c r="C35" s="12">
+        <v>43215</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>627</v>
@@ -7823,7 +7710,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>4</v>
@@ -7868,11 +7755,12 @@
       <c r="A36" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>1477</v>
+      <c r="B36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43225</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>665</v>
@@ -7936,11 +7824,12 @@
       <c r="A37" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>1473</v>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C37" s="10">
+        <v>42940</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>53</v>
@@ -8006,11 +7895,12 @@
       <c r="A38" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>1495</v>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10/03/2017</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43011</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>156</v>
@@ -8076,11 +7966,12 @@
       <c r="A39" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>1496</v>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>12/07/2017</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43076</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>270</v>
@@ -8146,11 +8037,12 @@
       <c r="A40" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>1497</v>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>12/29/2017</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43098</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>279</v>
@@ -8216,11 +8108,12 @@
       <c r="A41" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1498</v>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43169</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>302</v>
@@ -8284,11 +8177,12 @@
       <c r="A42" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1498</v>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43169</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>302</v>
@@ -8352,11 +8246,12 @@
       <c r="A43" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1499</v>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/31/2018</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43190</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>445</v>
@@ -8420,11 +8315,12 @@
       <c r="A44" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1491</v>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43196</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>501</v>
@@ -8488,11 +8384,12 @@
       <c r="A45" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1500</v>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/28/2018</v>
+      </c>
+      <c r="C45" s="12">
+        <v>43218</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>627</v>
@@ -8511,7 +8408,7 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>4</v>
@@ -8556,11 +8453,12 @@
       <c r="A46" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1477</v>
+      <c r="B46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C46" s="10">
+        <v>43225</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>665</v>
@@ -8624,11 +8522,12 @@
       <c r="A47" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1477</v>
+      <c r="B47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C47" s="10">
+        <v>43225</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>665</v>
@@ -8692,11 +8591,12 @@
       <c r="A48" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1477</v>
+      <c r="B48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43225</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>665</v>
@@ -8760,11 +8660,12 @@
       <c r="A49" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1477</v>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43225</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>665</v>
@@ -8830,11 +8731,12 @@
       <c r="A50" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1477</v>
+      <c r="B50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C50" s="10">
+        <v>43225</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>665</v>
@@ -8900,11 +8802,12 @@
       <c r="A51" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1501</v>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>08/14/2017</v>
+      </c>
+      <c r="C51" s="10">
+        <v>42961</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>78</v>
@@ -8970,11 +8873,12 @@
       <c r="A52" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1495</v>
+      <c r="B52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10/03/2017</v>
+      </c>
+      <c r="C52" s="10">
+        <v>43011</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>156</v>
@@ -9040,11 +8944,12 @@
       <c r="A53" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>1502</v>
+      <c r="B53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10/21/2017</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43029</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>193</v>
@@ -9110,11 +9015,12 @@
       <c r="A54" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>1502</v>
+      <c r="B54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10/21/2017</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43029</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>193</v>
@@ -9180,11 +9086,12 @@
       <c r="A55" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1498</v>
+      <c r="B55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C55" s="10">
+        <v>43169</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>302</v>
@@ -9248,11 +9155,12 @@
       <c r="A56" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>1490</v>
+      <c r="B56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C56" s="10">
+        <v>43175</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>354</v>
@@ -9316,11 +9224,12 @@
       <c r="A57" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>1475</v>
+      <c r="B57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C57" s="10">
+        <v>43176</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>354</v>
@@ -9386,11 +9295,12 @@
       <c r="A58" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>1491</v>
+      <c r="B58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C58" s="10">
+        <v>43196</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>501</v>
@@ -9454,11 +9364,12 @@
       <c r="A59" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>1491</v>
+      <c r="B59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C59" s="10">
+        <v>43196</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>501</v>
@@ -9522,11 +9433,12 @@
       <c r="A60" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>1491</v>
+      <c r="B60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C60" s="10">
+        <v>43196</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>501</v>
@@ -9590,11 +9502,12 @@
       <c r="A61" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>1491</v>
+      <c r="B61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C61" s="10">
+        <v>43196</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>501</v>
@@ -9658,11 +9571,12 @@
       <c r="A62" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>1498</v>
+      <c r="B62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C62" s="10">
+        <v>43169</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>302</v>
@@ -9726,11 +9640,12 @@
       <c r="A63" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>1503</v>
+      <c r="B63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/19/2018</v>
+      </c>
+      <c r="C63" s="11">
+        <v>43209</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>582</v>
@@ -9794,11 +9709,12 @@
       <c r="A64" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>1503</v>
+      <c r="B64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04/19/2018</v>
+      </c>
+      <c r="C64" s="11">
+        <v>43209</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>582</v>
@@ -9862,11 +9778,12 @@
       <c r="A65" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>1504</v>
+      <c r="B65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>09/18/2017</v>
+      </c>
+      <c r="C65" s="10">
+        <v>42996</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>133</v>
@@ -9938,11 +9855,12 @@
       <c r="A66" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1505</v>
+      <c r="B66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>12/02/2017</v>
+      </c>
+      <c r="C66" s="10">
+        <v>43071</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>254</v>
@@ -10010,11 +9928,12 @@
       <c r="A67" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>1486</v>
+      <c r="B67" s="9" t="str">
+        <f t="shared" ref="B67:B130" si="1">TEXT(C67, "mm/dd/yyy")</f>
+        <v>04/04/2018</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43194</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>501</v>
@@ -10078,11 +9997,12 @@
       <c r="A68" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>1486</v>
+      <c r="B68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/04/2018</v>
+      </c>
+      <c r="C68" s="10">
+        <v>43194</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>501</v>
@@ -10146,11 +10066,12 @@
       <c r="A69" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>1481</v>
+      <c r="B69" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C69" s="10">
+        <v>43210</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>582</v>
@@ -10214,11 +10135,12 @@
       <c r="A70" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>1481</v>
+      <c r="B70" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43210</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>582</v>
@@ -10282,11 +10204,12 @@
       <c r="A71" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>1506</v>
+      <c r="B71" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C71" s="10">
+        <v>43224</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>665</v>
@@ -10350,11 +10273,12 @@
       <c r="A72" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>1477</v>
+      <c r="B72" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43225</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>665</v>
@@ -10420,11 +10344,12 @@
       <c r="A73" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>1477</v>
+      <c r="B73" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C73" s="10">
+        <v>43225</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>665</v>
@@ -10490,11 +10415,12 @@
       <c r="A74" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>1477</v>
+      <c r="B74" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C74" s="10">
+        <v>43225</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>665</v>
@@ -10560,11 +10486,12 @@
       <c r="A75" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>1477</v>
+      <c r="B75" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C75" s="10">
+        <v>43225</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>665</v>
@@ -10630,11 +10557,12 @@
       <c r="A76" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>1500</v>
+      <c r="B76" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/28/2018</v>
+      </c>
+      <c r="C76" s="12">
+        <v>43218</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>627</v>
@@ -10698,11 +10626,12 @@
       <c r="A77" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>1473</v>
+      <c r="B77" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C77" s="10">
+        <v>42940</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>53</v>
@@ -10768,11 +10697,12 @@
       <c r="A78" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>1479</v>
+      <c r="B78" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/11/2017</v>
+      </c>
+      <c r="C78" s="10">
+        <v>42989</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>106</v>
@@ -10838,11 +10768,12 @@
       <c r="A79" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>1507</v>
+      <c r="B79" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/14/2017</v>
+      </c>
+      <c r="C79" s="10">
+        <v>42992</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>106</v>
@@ -10908,11 +10839,12 @@
       <c r="A80" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>1507</v>
+      <c r="B80" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/14/2017</v>
+      </c>
+      <c r="C80" s="10">
+        <v>42992</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>106</v>
@@ -10978,11 +10910,12 @@
       <c r="A81" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>1508</v>
+      <c r="B81" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/15/2017</v>
+      </c>
+      <c r="C81" s="10">
+        <v>42993</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>106</v>
@@ -11048,11 +10981,12 @@
       <c r="A82" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>1509</v>
+      <c r="B82" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/06/2017</v>
+      </c>
+      <c r="C82" s="10">
+        <v>43014</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>156</v>
@@ -11118,11 +11052,12 @@
       <c r="A83" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>1509</v>
+      <c r="B83" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/06/2017</v>
+      </c>
+      <c r="C83" s="10">
+        <v>43014</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>156</v>
@@ -11188,11 +11123,12 @@
       <c r="A84" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>1510</v>
+      <c r="B84" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11/25/2017</v>
+      </c>
+      <c r="C84" s="10">
+        <v>43064</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>249</v>
@@ -11258,11 +11194,12 @@
       <c r="A85" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1498</v>
+      <c r="B85" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C85" s="10">
+        <v>43169</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>302</v>
@@ -11326,11 +11263,12 @@
       <c r="A86" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>1475</v>
+      <c r="B86" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C86" s="10">
+        <v>43176</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>354</v>
@@ -11396,11 +11334,12 @@
       <c r="A87" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>1475</v>
+      <c r="B87" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C87" s="10">
+        <v>43176</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>354</v>
@@ -11464,11 +11403,12 @@
       <c r="A88" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>1475</v>
+      <c r="B88" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C88" s="10">
+        <v>43176</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>354</v>
@@ -11532,11 +11472,12 @@
       <c r="A89" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>1485</v>
+      <c r="B89" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C89" s="10">
+        <v>43182</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>406</v>
@@ -11600,11 +11541,12 @@
       <c r="A90" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>1511</v>
+      <c r="B90" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/24/2018</v>
+      </c>
+      <c r="C90" s="10">
+        <v>43183</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>406</v>
@@ -11668,11 +11610,12 @@
       <c r="A91" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>1511</v>
+      <c r="B91" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/24/2018</v>
+      </c>
+      <c r="C91" s="10">
+        <v>43183</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>406</v>
@@ -11736,11 +11679,12 @@
       <c r="A92" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>1512</v>
+      <c r="B92" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/11/2018</v>
+      </c>
+      <c r="C92" s="12">
+        <v>43201</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>544</v>
@@ -11804,11 +11748,12 @@
       <c r="A93" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>1492</v>
+      <c r="B93" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C93" s="12">
+        <v>43203</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>544</v>
@@ -11872,11 +11817,12 @@
       <c r="A94" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>1513</v>
+      <c r="B94" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C94" s="12">
+        <v>43216</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>627</v>
@@ -11895,7 +11841,7 @@
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>4</v>
@@ -11940,11 +11886,12 @@
       <c r="A95" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>1514</v>
+      <c r="B95" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/08/2018</v>
+      </c>
+      <c r="C95" s="10">
+        <v>43228</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>733</v>
@@ -12010,11 +11957,12 @@
       <c r="A96" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>1514</v>
+      <c r="B96" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/08/2018</v>
+      </c>
+      <c r="C96" s="10">
+        <v>43228</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>733</v>
@@ -12080,11 +12028,12 @@
       <c r="A97" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>1514</v>
+      <c r="B97" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/08/2018</v>
+      </c>
+      <c r="C97" s="10">
+        <v>43228</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>733</v>
@@ -12150,11 +12099,12 @@
       <c r="A98" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>1515</v>
+      <c r="B98" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/12/2017</v>
+      </c>
+      <c r="C98" s="10">
+        <v>43020</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>179</v>
@@ -12226,11 +12176,12 @@
       <c r="A99" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>1505</v>
+      <c r="B99" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>12/02/2017</v>
+      </c>
+      <c r="C99" s="10">
+        <v>43071</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>254</v>
@@ -12296,11 +12247,12 @@
       <c r="A100" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>1505</v>
+      <c r="B100" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>12/02/2017</v>
+      </c>
+      <c r="C100" s="10">
+        <v>43071</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>254</v>
@@ -12366,11 +12318,12 @@
       <c r="A101" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>1485</v>
+      <c r="B101" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C101" s="10">
+        <v>43182</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>406</v>
@@ -12434,11 +12387,12 @@
       <c r="A102" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>1477</v>
+      <c r="B102" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C102" s="10">
+        <v>43225</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>665</v>
@@ -12504,11 +12458,12 @@
       <c r="A103" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>1477</v>
+      <c r="B103" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C103" s="10">
+        <v>43225</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>665</v>
@@ -12574,11 +12529,12 @@
       <c r="A104" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>1507</v>
+      <c r="B104" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/14/2017</v>
+      </c>
+      <c r="C104" s="10">
+        <v>42992</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>106</v>
@@ -12650,11 +12606,12 @@
       <c r="A105" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>1516</v>
+      <c r="B105" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>09/21/2017</v>
+      </c>
+      <c r="C105" s="10">
+        <v>42999</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>133</v>
@@ -12726,11 +12683,12 @@
       <c r="A106" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>1517</v>
+      <c r="B106" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/31/2017</v>
+      </c>
+      <c r="C106" s="10">
+        <v>43039</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>205</v>
@@ -12796,11 +12754,12 @@
       <c r="A107" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>1518</v>
+      <c r="B107" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C107" s="10">
+        <v>43057</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>227</v>
@@ -12866,11 +12825,12 @@
       <c r="A108" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>1519</v>
+      <c r="B108" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C108" s="10">
+        <v>43167</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>302</v>
@@ -12934,11 +12894,12 @@
       <c r="A109" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>1519</v>
+      <c r="B109" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C109" s="10">
+        <v>43167</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>302</v>
@@ -13002,11 +12963,12 @@
       <c r="A110" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>1519</v>
+      <c r="B110" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C110" s="10">
+        <v>43167</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>302</v>
@@ -13070,11 +13032,12 @@
       <c r="A111" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>1503</v>
+      <c r="B111" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/19/2018</v>
+      </c>
+      <c r="C111" s="10">
+        <v>43209</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>582</v>
@@ -13138,11 +13101,12 @@
       <c r="A112" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>1503</v>
+      <c r="B112" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/19/2018</v>
+      </c>
+      <c r="C112" s="10">
+        <v>43209</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>582</v>
@@ -13206,11 +13170,12 @@
       <c r="A113" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>1481</v>
+      <c r="B113" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C113" s="10">
+        <v>43210</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>582</v>
@@ -13274,11 +13239,12 @@
       <c r="A114" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>1473</v>
+      <c r="B114" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>07/24/2017</v>
+      </c>
+      <c r="C114" s="10">
+        <v>42940</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>53</v>
@@ -13344,11 +13310,12 @@
       <c r="A115" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>1484</v>
+      <c r="B115" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>01/18/2018</v>
+      </c>
+      <c r="C115" s="10">
+        <v>43118</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>290</v>
@@ -13416,11 +13383,12 @@
       <c r="A116" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>1498</v>
+      <c r="B116" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C116" s="10">
+        <v>43169</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>302</v>
@@ -13484,11 +13452,12 @@
       <c r="A117" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>1491</v>
+      <c r="B117" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C117" s="10">
+        <v>43196</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>501</v>
@@ -13552,11 +13521,12 @@
       <c r="A118" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>1492</v>
+      <c r="B118" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C118" s="12">
+        <v>43203</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>544</v>
@@ -13620,11 +13590,12 @@
       <c r="A119" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>1492</v>
+      <c r="B119" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C119" s="12">
+        <v>43203</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>544</v>
@@ -13688,11 +13659,12 @@
       <c r="A120" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>1481</v>
+      <c r="B120" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C120" s="11">
+        <v>43210</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>582</v>
@@ -13756,11 +13728,12 @@
       <c r="A121" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>1481</v>
+      <c r="B121" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C121" s="11">
+        <v>43210</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>582</v>
@@ -13824,11 +13797,12 @@
       <c r="A122" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>1481</v>
+      <c r="B122" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/20/2018</v>
+      </c>
+      <c r="C122" s="11">
+        <v>43210</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>582</v>
@@ -13892,11 +13866,12 @@
       <c r="A123" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>1500</v>
+      <c r="B123" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/28/2018</v>
+      </c>
+      <c r="C123" s="12">
+        <v>43218</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>627</v>
@@ -13915,7 +13890,7 @@
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>4</v>
@@ -13960,11 +13935,12 @@
       <c r="A124" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>1478</v>
+      <c r="B124" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="C124" s="10">
+        <v>43227</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>733</v>
@@ -14030,11 +14006,12 @@
       <c r="A125" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>1478</v>
+      <c r="B125" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="C125" s="10">
+        <v>43227</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>733</v>
@@ -14100,11 +14077,12 @@
       <c r="A126" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>1509</v>
+      <c r="B126" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/06/2017</v>
+      </c>
+      <c r="C126" s="10">
+        <v>43014</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>156</v>
@@ -14176,11 +14154,12 @@
       <c r="A127" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>1486</v>
+      <c r="B127" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/04/2018</v>
+      </c>
+      <c r="C127" s="10">
+        <v>43194</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>501</v>
@@ -14244,11 +14223,12 @@
       <c r="A128" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>1486</v>
+      <c r="B128" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/04/2018</v>
+      </c>
+      <c r="C128" s="10">
+        <v>43194</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>501</v>
@@ -14312,11 +14292,12 @@
       <c r="A129" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>1520</v>
+      <c r="B129" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>04/05/2018</v>
+      </c>
+      <c r="C129" s="10">
+        <v>43195</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>501</v>
@@ -14380,11 +14361,12 @@
       <c r="A130" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>1515</v>
+      <c r="B130" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10/12/2017</v>
+      </c>
+      <c r="C130" s="10">
+        <v>43020</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>179</v>
@@ -14456,11 +14438,12 @@
       <c r="A131" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>1517</v>
+      <c r="B131" s="9" t="str">
+        <f t="shared" ref="B131:B194" si="2">TEXT(C131, "mm/dd/yyy")</f>
+        <v>10/31/2017</v>
+      </c>
+      <c r="C131" s="10">
+        <v>43039</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>205</v>
@@ -14526,11 +14509,12 @@
       <c r="A132" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>1518</v>
+      <c r="B132" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C132" s="10">
+        <v>43057</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>227</v>
@@ -14596,11 +14580,12 @@
       <c r="A133" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>1518</v>
+      <c r="B133" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C133" s="10">
+        <v>43057</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>227</v>
@@ -14666,11 +14651,12 @@
       <c r="A134" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>1518</v>
+      <c r="B134" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C134" s="10">
+        <v>43057</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>227</v>
@@ -14736,11 +14722,12 @@
       <c r="A135" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>1518</v>
+      <c r="B135" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C135" s="10">
+        <v>43057</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>227</v>
@@ -14806,11 +14793,12 @@
       <c r="A136" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>1519</v>
+      <c r="B136" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C136" s="10">
+        <v>43167</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>302</v>
@@ -14874,11 +14862,12 @@
       <c r="A137" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>1519</v>
+      <c r="B137" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C137" s="10">
+        <v>43167</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>302</v>
@@ -14942,11 +14931,12 @@
       <c r="A138" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>1503</v>
+      <c r="B138" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/19/2018</v>
+      </c>
+      <c r="C138" s="10">
+        <v>43209</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>582</v>
@@ -15010,11 +15000,12 @@
       <c r="A139" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>1516</v>
+      <c r="B139" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>09/21/2017</v>
+      </c>
+      <c r="C139" s="10">
+        <v>42999</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>133</v>
@@ -15086,11 +15077,12 @@
       <c r="A140" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>1521</v>
+      <c r="B140" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/29/2018</v>
+      </c>
+      <c r="C140" s="10">
+        <v>43188</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>445</v>
@@ -15154,11 +15146,12 @@
       <c r="A141" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>1521</v>
+      <c r="B141" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/29/2018</v>
+      </c>
+      <c r="C141" s="10">
+        <v>43188</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>445</v>
@@ -15222,11 +15215,12 @@
       <c r="A142" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>1476</v>
+      <c r="B142" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/30/2018</v>
+      </c>
+      <c r="C142" s="10">
+        <v>43189</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>445</v>
@@ -15290,11 +15284,12 @@
       <c r="A143" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>1476</v>
+      <c r="B143" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/30/2018</v>
+      </c>
+      <c r="C143" s="10">
+        <v>43189</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>445</v>
@@ -15358,11 +15353,12 @@
       <c r="A144" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>1515</v>
+      <c r="B144" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>10/12/2017</v>
+      </c>
+      <c r="C144" s="10">
+        <v>43020</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>179</v>
@@ -15434,11 +15430,12 @@
       <c r="A145" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>1505</v>
+      <c r="B145" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>12/02/2017</v>
+      </c>
+      <c r="C145" s="10">
+        <v>43071</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>254</v>
@@ -15506,11 +15503,12 @@
       <c r="A146" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>1519</v>
+      <c r="B146" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C146" s="10">
+        <v>43167</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>302</v>
@@ -15574,11 +15572,12 @@
       <c r="A147" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>1475</v>
+      <c r="B147" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C147" s="10">
+        <v>43176</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>354</v>
@@ -15642,11 +15641,12 @@
       <c r="A148" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>1475</v>
+      <c r="B148" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C148" s="10">
+        <v>43176</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>354</v>
@@ -15710,11 +15710,12 @@
       <c r="A149" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>1475</v>
+      <c r="B149" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C149" s="10">
+        <v>43176</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>354</v>
@@ -15778,11 +15779,12 @@
       <c r="A150" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>1475</v>
+      <c r="B150" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C150" s="10">
+        <v>43176</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>354</v>
@@ -15846,11 +15848,12 @@
       <c r="A151" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>1485</v>
+      <c r="B151" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C151" s="10">
+        <v>43182</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>406</v>
@@ -15914,11 +15917,12 @@
       <c r="A152" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>1513</v>
+      <c r="B152" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C152" s="10">
+        <v>43216</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>627</v>
@@ -15937,7 +15941,7 @@
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>4</v>
@@ -15982,11 +15986,12 @@
       <c r="A153" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>1522</v>
+      <c r="B153" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/27/2018</v>
+      </c>
+      <c r="C153" s="10">
+        <v>43217</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>627</v>
@@ -16005,7 +16010,7 @@
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>4</v>
@@ -16050,11 +16055,12 @@
       <c r="A154" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>1522</v>
+      <c r="B154" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/27/2018</v>
+      </c>
+      <c r="C154" s="10">
+        <v>43217</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>627</v>
@@ -16073,7 +16079,7 @@
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>4</v>
@@ -16118,11 +16124,12 @@
       <c r="A155" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>1522</v>
+      <c r="B155" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/27/2018</v>
+      </c>
+      <c r="C155" s="10">
+        <v>43217</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>627</v>
@@ -16141,7 +16148,7 @@
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>4</v>
@@ -16186,11 +16193,12 @@
       <c r="A156" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>1506</v>
+      <c r="B156" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C156" s="10">
+        <v>43224</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>665</v>
@@ -16254,11 +16262,12 @@
       <c r="A157" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>1506</v>
+      <c r="B157" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C157" s="10">
+        <v>43224</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>665</v>
@@ -16322,11 +16331,12 @@
       <c r="A158" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>1506</v>
+      <c r="B158" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C158" s="10">
+        <v>43224</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>665</v>
@@ -16390,11 +16400,12 @@
       <c r="A159" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>1506</v>
+      <c r="B159" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C159" s="10">
+        <v>43224</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>665</v>
@@ -16458,11 +16469,12 @@
       <c r="A160" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>1506</v>
+      <c r="B160" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C160" s="10">
+        <v>43224</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>665</v>
@@ -16526,11 +16538,12 @@
       <c r="A161" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>1504</v>
+      <c r="B161" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>09/18/2017</v>
+      </c>
+      <c r="C161" s="10">
+        <v>42996</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>133</v>
@@ -16602,11 +16615,12 @@
       <c r="A162" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>1517</v>
+      <c r="B162" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>10/31/2017</v>
+      </c>
+      <c r="C162" s="10">
+        <v>43039</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>205</v>
@@ -16672,11 +16686,12 @@
       <c r="A163" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>1518</v>
+      <c r="B163" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/18/2017</v>
+      </c>
+      <c r="C163" s="10">
+        <v>43057</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>227</v>
@@ -16742,11 +16757,12 @@
       <c r="A164" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>1520</v>
+      <c r="B164" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/05/2018</v>
+      </c>
+      <c r="C164" s="10">
+        <v>43195</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>501</v>
@@ -16810,11 +16826,12 @@
       <c r="A165" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>1523</v>
+      <c r="B165" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/10/2018</v>
+      </c>
+      <c r="C165" s="10">
+        <v>43200</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>544</v>
@@ -16878,11 +16895,12 @@
       <c r="A166" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>1523</v>
+      <c r="B166" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/10/2018</v>
+      </c>
+      <c r="C166" s="10">
+        <v>43200</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>544</v>
@@ -16946,11 +16964,12 @@
       <c r="A167" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>1523</v>
+      <c r="B167" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/10/2018</v>
+      </c>
+      <c r="C167" s="10">
+        <v>43200</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>544</v>
@@ -17014,11 +17033,12 @@
       <c r="A168" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>1512</v>
+      <c r="B168" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/11/2018</v>
+      </c>
+      <c r="C168" s="10">
+        <v>43201</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>544</v>
@@ -17082,11 +17102,12 @@
       <c r="A169" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>1512</v>
+      <c r="B169" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/11/2018</v>
+      </c>
+      <c r="C169" s="10">
+        <v>43201</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>544</v>
@@ -17150,11 +17171,12 @@
       <c r="A170" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>1512</v>
+      <c r="B170" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>04/11/2018</v>
+      </c>
+      <c r="C170" s="10">
+        <v>43201</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>544</v>
@@ -17218,11 +17240,12 @@
       <c r="A171" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>1506</v>
+      <c r="B171" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C171" s="10">
+        <v>43224</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>665</v>
@@ -17286,11 +17309,12 @@
       <c r="A172" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>1506</v>
+      <c r="B172" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>05/04/2018</v>
+      </c>
+      <c r="C172" s="10">
+        <v>43224</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>665</v>
@@ -17354,11 +17378,12 @@
       <c r="A173" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>1519</v>
+      <c r="B173" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C173" s="10">
+        <v>43167</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>302</v>
@@ -17422,11 +17447,12 @@
       <c r="A174" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>1485</v>
+      <c r="B174" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C174" s="10">
+        <v>43182</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>406</v>
@@ -17490,11 +17516,12 @@
       <c r="A175" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>1485</v>
+      <c r="B175" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C175" s="10">
+        <v>43182</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>406</v>
@@ -17558,11 +17585,12 @@
       <c r="A176" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>1524</v>
+      <c r="B176" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>08/18/2017</v>
+      </c>
+      <c r="C176" s="10">
+        <v>42965</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>78</v>
@@ -17628,11 +17656,12 @@
       <c r="A177" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>1498</v>
+      <c r="B177" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C177" s="10">
+        <v>43169</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>302</v>
@@ -17696,11 +17725,12 @@
       <c r="A178" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>1511</v>
+      <c r="B178" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/24/2018</v>
+      </c>
+      <c r="C178" s="10">
+        <v>43183</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>406</v>
@@ -17764,11 +17794,12 @@
       <c r="A179" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B179" s="7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>1511</v>
+      <c r="B179" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/24/2018</v>
+      </c>
+      <c r="C179" s="10">
+        <v>43183</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>406</v>
@@ -17832,11 +17863,12 @@
       <c r="A180" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>1482</v>
+      <c r="B180" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>07/11/2017</v>
+      </c>
+      <c r="C180" s="10">
+        <v>42927</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>40</v>
@@ -17902,11 +17934,12 @@
       <c r="A181" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>1501</v>
+      <c r="B181" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>08/14/2017</v>
+      </c>
+      <c r="C181" s="10">
+        <v>42961</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>78</v>
@@ -17972,11 +18005,12 @@
       <c r="A182" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>1525</v>
+      <c r="B182" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>09/01/2017</v>
+      </c>
+      <c r="C182" s="10">
+        <v>42979</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>94</v>
@@ -18042,11 +18076,12 @@
       <c r="A183" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>1525</v>
+      <c r="B183" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>09/01/2017</v>
+      </c>
+      <c r="C183" s="10">
+        <v>42979</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>94</v>
@@ -18112,11 +18147,12 @@
       <c r="A184" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>1526</v>
+      <c r="B184" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>11/04/2017</v>
+      </c>
+      <c r="C184" s="10">
+        <v>43043</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>205</v>
@@ -18182,11 +18218,12 @@
       <c r="A185" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>1498</v>
+      <c r="B185" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C185" s="10">
+        <v>43169</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>302</v>
@@ -18250,11 +18287,12 @@
       <c r="A186" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>1490</v>
+      <c r="B186" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C186" s="10">
+        <v>43175</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>354</v>
@@ -18318,11 +18356,12 @@
       <c r="A187" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>1490</v>
+      <c r="B187" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C187" s="10">
+        <v>43175</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>354</v>
@@ -18386,11 +18425,12 @@
       <c r="A188" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>1475</v>
+      <c r="B188" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C188" s="10">
+        <v>43176</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>354</v>
@@ -18456,11 +18496,12 @@
       <c r="A189" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>1475</v>
+      <c r="B189" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2018</v>
+      </c>
+      <c r="C189" s="10">
+        <v>43176</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>354</v>
@@ -18526,11 +18567,12 @@
       <c r="A190" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>1485</v>
+      <c r="B190" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C190" s="10">
+        <v>43182</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>406</v>
@@ -18594,11 +18636,12 @@
       <c r="A191" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>1485</v>
+      <c r="B191" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C191" s="10">
+        <v>43182</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>406</v>
@@ -18662,11 +18705,12 @@
       <c r="A192" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>1485</v>
+      <c r="B192" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/23/2018</v>
+      </c>
+      <c r="C192" s="10">
+        <v>43182</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>406</v>
@@ -18732,11 +18776,12 @@
       <c r="A193" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>1527</v>
+      <c r="B193" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/28/2018</v>
+      </c>
+      <c r="C193" s="10">
+        <v>43187</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>445</v>
@@ -18800,11 +18845,12 @@
       <c r="A194" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>1521</v>
+      <c r="B194" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>03/29/2018</v>
+      </c>
+      <c r="C194" s="10">
+        <v>43188</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>445</v>
@@ -18868,11 +18914,12 @@
       <c r="A195" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>1521</v>
+      <c r="B195" s="9" t="str">
+        <f t="shared" ref="B195:B221" si="3">TEXT(C195, "mm/dd/yyy")</f>
+        <v>03/29/2018</v>
+      </c>
+      <c r="C195" s="10">
+        <v>43188</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>445</v>
@@ -18936,11 +18983,12 @@
       <c r="A196" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>1491</v>
+      <c r="B196" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/06/2018</v>
+      </c>
+      <c r="C196" s="10">
+        <v>43196</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>501</v>
@@ -19004,11 +19052,12 @@
       <c r="A197" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="B197" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>1513</v>
+      <c r="B197" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C197" s="12">
+        <v>43216</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>627</v>
@@ -19027,7 +19076,7 @@
       </c>
       <c r="I197" s="4"/>
       <c r="J197" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K197" s="4" t="s">
         <v>4</v>
@@ -19072,11 +19121,12 @@
       <c r="A198" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>1477</v>
+      <c r="B198" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C198" s="10">
+        <v>43225</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>665</v>
@@ -19140,11 +19190,12 @@
       <c r="A199" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>1528</v>
+      <c r="B199" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>01/04/2017</v>
+      </c>
+      <c r="C199" s="10">
+        <v>42739</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>8</v>
@@ -19210,11 +19261,12 @@
       <c r="A200" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B200" s="7" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>1482</v>
+      <c r="B200" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>07/11/2017</v>
+      </c>
+      <c r="C200" s="10">
+        <v>42927</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>40</v>
@@ -19280,11 +19332,12 @@
       <c r="A201" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>1524</v>
+      <c r="B201" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>08/18/2017</v>
+      </c>
+      <c r="C201" s="10">
+        <v>42965</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>78</v>
@@ -19350,11 +19403,12 @@
       <c r="A202" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>1525</v>
+      <c r="B202" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>09/01/2017</v>
+      </c>
+      <c r="C202" s="10">
+        <v>42979</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>94</v>
@@ -19420,11 +19474,12 @@
       <c r="A203" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B203" s="7" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>1483</v>
+      <c r="B203" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10/17/2017</v>
+      </c>
+      <c r="C203" s="10">
+        <v>43025</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>193</v>
@@ -19490,11 +19545,12 @@
       <c r="A204" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>1490</v>
+      <c r="B204" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C204" s="10">
+        <v>43175</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>354</v>
@@ -19558,11 +19614,12 @@
       <c r="A205" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>1490</v>
+      <c r="B205" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>03/16/2018</v>
+      </c>
+      <c r="C205" s="10">
+        <v>43175</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>354</v>
@@ -19626,11 +19683,12 @@
       <c r="A206" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>1527</v>
+      <c r="B206" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>03/28/2018</v>
+      </c>
+      <c r="C206" s="10">
+        <v>43187</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>445</v>
@@ -19694,11 +19752,12 @@
       <c r="A207" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B207" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>1492</v>
+      <c r="B207" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C207" s="12">
+        <v>43203</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>544</v>
@@ -19762,11 +19821,12 @@
       <c r="A208" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>1513</v>
+      <c r="B208" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C208" s="12">
+        <v>43216</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>627</v>
@@ -19785,7 +19845,7 @@
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K208" s="4" t="s">
         <v>4</v>
@@ -19830,11 +19890,12 @@
       <c r="A209" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>1477</v>
+      <c r="B209" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C209" s="10">
+        <v>43225</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>665</v>
@@ -19898,11 +19959,12 @@
       <c r="A210" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>1477</v>
+      <c r="B210" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>05/05/2018</v>
+      </c>
+      <c r="C210" s="10">
+        <v>43225</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>665</v>
@@ -19966,11 +20028,12 @@
       <c r="A211" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>1478</v>
+      <c r="B211" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="C211" s="10">
+        <v>43227</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>733</v>
@@ -20036,11 +20099,12 @@
       <c r="A212" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="B212" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>1517</v>
+      <c r="B212" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10/31/2017</v>
+      </c>
+      <c r="C212" s="10">
+        <v>43039</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>205</v>
@@ -20106,11 +20170,12 @@
       <c r="A213" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B213" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>1509</v>
+      <c r="B213" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10/06/2017</v>
+      </c>
+      <c r="C213" s="10">
+        <v>43014</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>156</v>
@@ -20182,11 +20247,12 @@
       <c r="A214" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>1517</v>
+      <c r="B214" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10/31/2017</v>
+      </c>
+      <c r="C214" s="10">
+        <v>43039</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>205</v>
@@ -20252,11 +20318,12 @@
       <c r="A215" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="B215" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>1519</v>
+      <c r="B215" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>03/08/2018</v>
+      </c>
+      <c r="C215" s="10">
+        <v>43167</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>302</v>
@@ -20320,11 +20387,12 @@
       <c r="A216" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="B216" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>1513</v>
+      <c r="B216" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C216" s="10">
+        <v>43216</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>627</v>
@@ -20343,7 +20411,7 @@
       </c>
       <c r="I216" s="4"/>
       <c r="J216" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K216" s="4" t="s">
         <v>4</v>
@@ -20388,11 +20456,12 @@
       <c r="A217" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B217" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>1513</v>
+      <c r="B217" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/26/2018</v>
+      </c>
+      <c r="C217" s="10">
+        <v>43216</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>627</v>
@@ -20411,7 +20480,7 @@
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="K217" s="4" t="s">
         <v>4</v>
@@ -20456,11 +20525,12 @@
       <c r="A218" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>1498</v>
+      <c r="B218" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>03/10/2018</v>
+      </c>
+      <c r="C218" s="10">
+        <v>43169</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>302</v>
@@ -20524,11 +20594,12 @@
       <c r="A219" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>1492</v>
+      <c r="B219" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/13/2018</v>
+      </c>
+      <c r="C219" s="12">
+        <v>43203</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>544</v>
@@ -20592,11 +20663,12 @@
       <c r="A220" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="B220" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>1529</v>
+      <c r="B220" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/18/2018</v>
+      </c>
+      <c r="C220" s="11">
+        <v>43208</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>582</v>
@@ -20660,11 +20732,12 @@
       <c r="A221" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="B221" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>1529</v>
+      <c r="B221" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>04/18/2018</v>
+      </c>
+      <c r="C221" s="11">
+        <v>43208</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>582</v>
@@ -20826,7 +20899,7 @@
       <sortCondition ref="N1:N253"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J10:J11 J20:J21 J25 J27 J31 J34:J36 J42 J44:J50 J62 J71:J76 J85 J94:J97 J102:J103">
+  <conditionalFormatting sqref="J10:J11 J21 J25 J27 J31 J34 J42 J44 J62 J71:J76 J85 J95:J97 J102:J103 J36 J46:J50">
     <cfRule type="containsText" dxfId="39" priority="91" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J10)))</formula>
     </cfRule>
@@ -20846,17 +20919,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="87" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J158)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J123">
-    <cfRule type="containsText" dxfId="33" priority="79" operator="containsText" text="On-Hold">
-      <formula>NOT(ISERROR(SEARCH("On-Hold",J123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="80" operator="containsText" text="Setting">
-      <formula>NOT(ISERROR(SEARCH("Setting",J123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="81" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
@@ -20881,7 +20943,7 @@
       <formula>NOT(ISERROR(SEARCH("Done",J125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J187 J197:J198">
+  <conditionalFormatting sqref="J187 J198">
     <cfRule type="containsText" dxfId="24" priority="61" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J187)))</formula>
     </cfRule>
@@ -20890,50 +20952,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="On-Hold">
-      <formula>NOT(ISERROR(SEARCH("On-Hold",J152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Setting">
-      <formula>NOT(ISERROR(SEARCH("Setting",J152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J152)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="On-Hold">
-      <formula>NOT(ISERROR(SEARCH("On-Hold",J153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Setting">
-      <formula>NOT(ISERROR(SEARCH("Setting",J153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J153)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="On-Hold">
-      <formula>NOT(ISERROR(SEARCH("On-Hold",J154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Setting">
-      <formula>NOT(ISERROR(SEARCH("Setting",J154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="On-Hold">
-      <formula>NOT(ISERROR(SEARCH("On-Hold",J155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Setting">
-      <formula>NOT(ISERROR(SEARCH("Setting",J155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
@@ -20961,7 +20979,7 @@
   <conditionalFormatting sqref="H2:H221">
     <cfRule type="duplicateValues" dxfId="3" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J205 J208:J211 J216:J217">
+  <conditionalFormatting sqref="J205 J209:J211">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J205)))</formula>
     </cfRule>

--- a/src/data/locations.xlsx
+++ b/src/data/locations.xlsx
@@ -4642,7 +4642,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -4671,111 +4671,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5238,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J217" sqref="J217"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10580,8 +10475,8 @@
         <v>662</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="4" t="s">
-        <v>447</v>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>4</v>
@@ -20899,58 +20794,58 @@
       <sortCondition ref="N1:N253"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J10:J11 J21 J25 J27 J31 J34 J42 J44 J62 J71:J76 J85 J95:J97 J102:J103 J36 J46:J50">
-    <cfRule type="containsText" dxfId="39" priority="91" operator="containsText" text="On-Hold">
+  <conditionalFormatting sqref="J10:J11 J21 J25 J27 J31 J34 J42 J44 J62 J71:J75 J85 J95:J97 J102:J103 J36 J46:J50">
+    <cfRule type="containsText" dxfId="24" priority="91" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="92" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="23" priority="92" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="93" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="93" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158:J160 J171:J172">
-    <cfRule type="containsText" dxfId="36" priority="85" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="21" priority="85" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="86" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="20" priority="86" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="87" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="87" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="containsText" dxfId="30" priority="76" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="18" priority="76" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="17" priority="77" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="16" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="74" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="14" priority="74" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="13" priority="75" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187 J198">
-    <cfRule type="containsText" dxfId="24" priority="61" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="12" priority="61" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="62" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="11" priority="62" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="10" priority="63" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J187)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/data/locations.xlsx
+++ b/src/data/locations.xlsx
@@ -8399,553 +8399,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="215">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="137">
     <dxf>
       <fill>
         <patternFill>
@@ -10233,8 +9687,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J753" sqref="J753"/>
+    <sheetView tabSelected="1" topLeftCell="A503" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23825,7 +23279,7 @@
         <v>988</v>
       </c>
       <c r="B194" s="4" t="str">
-        <f t="shared" ref="B194:B257" si="3">TEXT(C194, "mm/dd/yyy")</f>
+        <f t="shared" ref="B194:B238" si="3">TEXT(C194, "mm/dd/yyy")</f>
         <v>05/05/2018</v>
       </c>
       <c r="C194" s="5">
@@ -43581,7 +43035,7 @@
         <v>2323</v>
       </c>
       <c r="B496" s="4" t="str">
-        <f t="shared" ref="B496:B559" si="8">TEXT(C496, "mm/dd/yyy")</f>
+        <f t="shared" ref="B496:B552" si="8">TEXT(C496, "mm/dd/yyy")</f>
         <v>07/13/2018</v>
       </c>
       <c r="C496" s="10">
@@ -48991,8 +48445,8 @@
         <v>1911</v>
       </c>
       <c r="I580" s="13"/>
-      <c r="J580" s="13" t="s">
-        <v>438</v>
+      <c r="J580" s="46" t="s">
+        <v>3</v>
       </c>
       <c r="K580" s="13" t="s">
         <v>4</v>
@@ -57888,7 +57342,7 @@
         <v>2576</v>
       </c>
       <c r="B717" s="4" t="str">
-        <f t="shared" ref="B717:B748" si="14">TEXT(C717, "mm/dd/yyy")</f>
+        <f t="shared" ref="B717:B745" si="14">TEXT(C717, "mm/dd/yyy")</f>
         <v>09/07/2018</v>
       </c>
       <c r="C717" s="5">
@@ -59780,499 +59234,499 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="214" priority="121" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="136" priority="121" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="122" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="135" priority="122" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="123" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="134" priority="123" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J130">
-    <cfRule type="containsText" dxfId="211" priority="115" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="133" priority="115" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="116" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="132" priority="116" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="117" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="131" priority="117" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133">
-    <cfRule type="containsText" dxfId="208" priority="106" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="130" priority="106" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="107" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="129" priority="107" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="108" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="128" priority="108" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="containsText" dxfId="205" priority="103" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="127" priority="103" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="104" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="126" priority="104" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="105" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="125" priority="105" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="containsText" dxfId="202" priority="91" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="124" priority="91" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="92" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="123" priority="92" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="93" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="122" priority="93" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J311">
-    <cfRule type="containsText" dxfId="199" priority="37" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="121" priority="37" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J311)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="38" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="120" priority="38" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J311)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="39" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="119" priority="39" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J311)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J546:J613 J619:J625 J627:J703 J705:J745">
-    <cfRule type="containsText" dxfId="196" priority="31" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="118" priority="31" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J546)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="32" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="117" priority="32" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J546)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="33" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="116" priority="33" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J546)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J177">
-    <cfRule type="containsText" dxfId="193" priority="127" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="115" priority="127" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="128" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="114" priority="128" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="129" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="113" priority="129" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127">
-    <cfRule type="containsText" dxfId="190" priority="124" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="112" priority="124" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="125" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="111" priority="125" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="126" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="110" priority="126" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129">
-    <cfRule type="containsText" dxfId="187" priority="118" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="109" priority="118" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="119" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="108" priority="119" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="120" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="107" priority="120" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="containsText" dxfId="184" priority="112" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="113" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="114" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132">
-    <cfRule type="containsText" dxfId="181" priority="109" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="110" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="111" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="101" priority="111" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="containsText" dxfId="178" priority="100" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J145)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="101" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J145)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="102" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="containsText" dxfId="175" priority="97" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="98" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="99" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J147">
-    <cfRule type="containsText" dxfId="172" priority="94" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="95" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="96" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="containsText" dxfId="169" priority="88" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="91" priority="88" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="89" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="90" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="containsText" dxfId="166" priority="85" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="88" priority="85" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="86" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="87" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="containsText" dxfId="163" priority="82" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="85" priority="82" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="83" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="84" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152">
-    <cfRule type="containsText" dxfId="160" priority="79" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="82" priority="79" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="80" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="81" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153">
-    <cfRule type="containsText" dxfId="157" priority="76" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="79" priority="76" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="77" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="78" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154">
-    <cfRule type="containsText" dxfId="154" priority="73" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="76" priority="73" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="74" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="75" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="151" priority="70" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="73" priority="70" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="71" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="72" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="containsText" dxfId="148" priority="67" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="70" priority="67" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="68" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="69" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="containsText" dxfId="145" priority="64" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="67" priority="64" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="65" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158">
-    <cfRule type="containsText" dxfId="142" priority="61" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="62" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="63" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159">
-    <cfRule type="containsText" dxfId="139" priority="58" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="59" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="60" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J160">
-    <cfRule type="containsText" dxfId="136" priority="55" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="56" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="57" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J161">
-    <cfRule type="containsText" dxfId="133" priority="52" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="53" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="containsText" dxfId="130" priority="49" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="50" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="51" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J214:J222">
-    <cfRule type="containsText" dxfId="127" priority="46" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J214)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="47" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J214)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="48" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J214)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J223">
-    <cfRule type="containsText" dxfId="124" priority="43" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="44" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="45" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J126 J178:J213 J224:J310 J312:J461">
-    <cfRule type="containsText" dxfId="121" priority="133" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="43" priority="133" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="134" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="42" priority="134" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="135" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="41" priority="135" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J143">
-    <cfRule type="containsText" dxfId="118" priority="130" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="40" priority="130" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="131" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="39" priority="131" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="132" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="38" priority="132" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140">
-    <cfRule type="duplicateValues" dxfId="115" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I138">
-    <cfRule type="duplicateValues" dxfId="114" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I137">
-    <cfRule type="duplicateValues" dxfId="113" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J462:J476 J479:J502 J504:J545">
-    <cfRule type="containsText" dxfId="112" priority="34" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="35" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="36" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J462)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H745">
-    <cfRule type="duplicateValues" dxfId="109" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J477">
-    <cfRule type="containsText" dxfId="59" priority="28" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J477)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J477)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J478">
-    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J478)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J478)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503">
-    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J503)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J503)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J503)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J614">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J614)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J614)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J614)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J615">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J615)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J615)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J615)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J616">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J616)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J616)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J616)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J617">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J617)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J617)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J617)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J618">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J618)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J618)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J618)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J626">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J626)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J626)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J626)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J704">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J704)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J704)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J704)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/data/locations.xlsx
+++ b/src/data/locations.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$918</definedName>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9686" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9707" uniqueCount="2282">
   <si>
     <t>plf_id</t>
   </si>
@@ -6940,6 +6941,18 @@
   </si>
   <si>
     <t>Setting</t>
+  </si>
+  <si>
+    <t>OTC Thủ Dầu Một</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Số 56 Đường số 2, khu nhà ở Tái Định Cư Chánh Nghĩa,khu 3, phường Chánh Nghĩa, Thành Phố Thủ Dầu Một, Tỉnh Bình Dương (Đối diện khu trà chanh khu dân cư Chánh Nghĩa)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -6984,41 +6997,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7357,21 +7347,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H930" sqref="H930"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" style="2" bestFit="1" customWidth="1"/>
@@ -7380,17 +7369,17 @@
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="100.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -7656,7 +7645,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7710,7 +7699,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7764,7 +7753,7 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7818,7 +7807,7 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7872,7 +7861,7 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7926,7 +7915,7 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7980,7 +7969,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8043,7 +8032,7 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8103,7 +8092,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8163,7 +8152,7 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8223,7 +8212,7 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8286,7 +8275,7 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8346,7 +8335,7 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8406,7 +8395,7 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8466,7 +8455,7 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8529,7 +8518,7 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8589,7 +8578,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -8649,7 +8638,7 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -8709,7 +8698,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -8772,7 +8761,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -8832,7 +8821,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -8892,7 +8881,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -8952,7 +8941,7 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9012,7 +9001,7 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9072,7 +9061,7 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9132,7 +9121,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9192,7 +9181,7 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9252,7 +9241,7 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9321,7 +9310,7 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9381,7 +9370,7 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -9441,7 +9430,7 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9501,7 +9490,7 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -9570,7 +9559,7 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -9639,7 +9628,7 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -9708,7 +9697,7 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -9777,7 +9766,7 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -9837,7 +9826,7 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -9897,7 +9886,7 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -9957,7 +9946,7 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10026,7 +10015,7 @@
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10095,7 +10084,7 @@
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10155,7 +10144,7 @@
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10215,7 +10204,7 @@
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10284,7 +10273,7 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10353,7 +10342,7 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10422,7 +10411,7 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10482,7 +10471,7 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10542,7 +10531,7 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
     </row>
-    <row r="52" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10602,7 +10591,7 @@
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
     </row>
-    <row r="53" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10662,7 +10651,7 @@
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
     </row>
-    <row r="54" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10722,7 +10711,7 @@
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
     </row>
-    <row r="55" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -10782,7 +10771,7 @@
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
     </row>
-    <row r="56" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -10842,7 +10831,7 @@
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -10902,7 +10891,7 @@
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -10962,7 +10951,7 @@
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
     </row>
-    <row r="59" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -11022,7 +11011,7 @@
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -11082,7 +11071,7 @@
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
     </row>
-    <row r="61" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -11142,7 +11131,7 @@
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
     </row>
-    <row r="62" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -11202,7 +11191,7 @@
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
     </row>
-    <row r="63" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -11262,7 +11251,7 @@
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -11322,7 +11311,7 @@
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -11382,7 +11371,7 @@
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
     </row>
-    <row r="66" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -11442,7 +11431,7 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -11505,7 +11494,7 @@
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -11565,7 +11554,7 @@
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -11625,7 +11614,7 @@
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -11688,7 +11677,7 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -11748,7 +11737,7 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
     </row>
-    <row r="72" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -11811,7 +11800,7 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -11871,7 +11860,7 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -11931,7 +11920,7 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -11991,7 +11980,7 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -12054,7 +12043,7 @@
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -12117,7 +12106,7 @@
       <c r="AF77" s="2"/>
       <c r="AG77" s="2"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -12177,7 +12166,7 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -12237,7 +12226,7 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -12297,7 +12286,7 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
     </row>
-    <row r="81" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -12357,7 +12346,7 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
     </row>
-    <row r="82" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -12417,7 +12406,7 @@
       <c r="AF82" s="2"/>
       <c r="AG82" s="2"/>
     </row>
-    <row r="83" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -12477,7 +12466,7 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
     </row>
-    <row r="84" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -12537,7 +12526,7 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
     </row>
-    <row r="85" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -12597,7 +12586,7 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
     </row>
-    <row r="86" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -12660,7 +12649,7 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
     </row>
-    <row r="87" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -12717,7 +12706,7 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
     </row>
-    <row r="88" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -12777,7 +12766,7 @@
       <c r="AF88" s="2"/>
       <c r="AG88" s="2"/>
     </row>
-    <row r="89" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -12837,7 +12826,7 @@
       <c r="AF89" s="2"/>
       <c r="AG89" s="2"/>
     </row>
-    <row r="90" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -12897,7 +12886,7 @@
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
     </row>
-    <row r="91" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -12957,7 +12946,7 @@
       <c r="AF91" s="2"/>
       <c r="AG91" s="2"/>
     </row>
-    <row r="92" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -13017,7 +13006,7 @@
       <c r="AF92" s="2"/>
       <c r="AG92" s="2"/>
     </row>
-    <row r="93" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -13077,7 +13066,7 @@
       <c r="AF93" s="2"/>
       <c r="AG93" s="2"/>
     </row>
-    <row r="94" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -13137,7 +13126,7 @@
       <c r="AF94" s="2"/>
       <c r="AG94" s="2"/>
     </row>
-    <row r="95" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -13197,7 +13186,7 @@
       <c r="AF95" s="2"/>
       <c r="AG95" s="2"/>
     </row>
-    <row r="96" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -13257,7 +13246,7 @@
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
     </row>
-    <row r="97" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -13317,7 +13306,7 @@
       <c r="AF97" s="2"/>
       <c r="AG97" s="2"/>
     </row>
-    <row r="98" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -13377,7 +13366,7 @@
       <c r="AF98" s="2"/>
       <c r="AG98" s="2"/>
     </row>
-    <row r="99" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -13437,7 +13426,7 @@
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
     </row>
-    <row r="100" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -13497,7 +13486,7 @@
       <c r="AF100" s="2"/>
       <c r="AG100" s="2"/>
     </row>
-    <row r="101" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -13557,7 +13546,7 @@
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
     </row>
-    <row r="102" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -13620,7 +13609,7 @@
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
     </row>
-    <row r="103" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -13680,7 +13669,7 @@
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
     </row>
-    <row r="104" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -13743,7 +13732,7 @@
       <c r="AF104" s="2"/>
       <c r="AG104" s="2"/>
     </row>
-    <row r="105" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -13803,7 +13792,7 @@
       <c r="AF105" s="2"/>
       <c r="AG105" s="2"/>
     </row>
-    <row r="106" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -13866,7 +13855,7 @@
       <c r="AF106" s="2"/>
       <c r="AG106" s="2"/>
     </row>
-    <row r="107" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -13926,7 +13915,7 @@
       <c r="AF107" s="2"/>
       <c r="AG107" s="2"/>
     </row>
-    <row r="108" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -13986,7 +13975,7 @@
       <c r="AF108" s="2"/>
       <c r="AG108" s="2"/>
     </row>
-    <row r="109" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -14046,7 +14035,7 @@
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
     </row>
-    <row r="110" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -14106,7 +14095,7 @@
       <c r="AF110" s="2"/>
       <c r="AG110" s="2"/>
     </row>
-    <row r="111" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -14166,7 +14155,7 @@
       <c r="AF111" s="2"/>
       <c r="AG111" s="2"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -14226,7 +14215,7 @@
       <c r="AF112" s="2"/>
       <c r="AG112" s="2"/>
     </row>
-    <row r="113" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -14286,7 +14275,7 @@
       <c r="AF113" s="2"/>
       <c r="AG113" s="2"/>
     </row>
-    <row r="114" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -14346,7 +14335,7 @@
       <c r="AF114" s="2"/>
       <c r="AG114" s="2"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -14406,7 +14395,7 @@
       <c r="AF115" s="2"/>
       <c r="AG115" s="2"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -14466,7 +14455,7 @@
       <c r="AF116" s="2"/>
       <c r="AG116" s="2"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -14526,7 +14515,7 @@
       <c r="AF117" s="2"/>
       <c r="AG117" s="2"/>
     </row>
-    <row r="118" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -14586,7 +14575,7 @@
       <c r="AF118" s="2"/>
       <c r="AG118" s="2"/>
     </row>
-    <row r="119" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -14646,7 +14635,7 @@
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
     </row>
-    <row r="120" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -14706,7 +14695,7 @@
       <c r="AF120" s="2"/>
       <c r="AG120" s="2"/>
     </row>
-    <row r="121" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -14766,7 +14755,7 @@
       <c r="AF121" s="2"/>
       <c r="AG121" s="2"/>
     </row>
-    <row r="122" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -14826,7 +14815,7 @@
       <c r="AF122" s="2"/>
       <c r="AG122" s="2"/>
     </row>
-    <row r="123" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -14883,7 +14872,7 @@
       <c r="AF123" s="2"/>
       <c r="AG123" s="2"/>
     </row>
-    <row r="124" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -14940,7 +14929,7 @@
       <c r="AF124" s="2"/>
       <c r="AG124" s="2"/>
     </row>
-    <row r="125" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -15000,7 +14989,7 @@
       <c r="AF125" s="2"/>
       <c r="AG125" s="2"/>
     </row>
-    <row r="126" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -15063,7 +15052,7 @@
       <c r="AF126" s="2"/>
       <c r="AG126" s="2"/>
     </row>
-    <row r="127" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -15121,7 +15110,7 @@
       <c r="AF127" s="2"/>
       <c r="AG127" s="2"/>
     </row>
-    <row r="128" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -15179,7 +15168,7 @@
       <c r="AF128" s="2"/>
       <c r="AG128" s="2"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -15239,7 +15228,7 @@
       <c r="AF129" s="2"/>
       <c r="AG129" s="2"/>
     </row>
-    <row r="130" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -15299,7 +15288,7 @@
       <c r="AF130" s="2"/>
       <c r="AG130" s="2"/>
     </row>
-    <row r="131" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -15359,7 +15348,7 @@
       <c r="AF131" s="2"/>
       <c r="AG131" s="2"/>
     </row>
-    <row r="132" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -15419,7 +15408,7 @@
       <c r="AF132" s="2"/>
       <c r="AG132" s="2"/>
     </row>
-    <row r="133" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -15479,7 +15468,7 @@
       <c r="AF133" s="2"/>
       <c r="AG133" s="2"/>
     </row>
-    <row r="134" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -15539,7 +15528,7 @@
       <c r="AF134" s="2"/>
       <c r="AG134" s="2"/>
     </row>
-    <row r="135" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -15599,7 +15588,7 @@
       <c r="AF135" s="2"/>
       <c r="AG135" s="2"/>
     </row>
-    <row r="136" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -15659,7 +15648,7 @@
       <c r="AF136" s="2"/>
       <c r="AG136" s="2"/>
     </row>
-    <row r="137" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -15719,7 +15708,7 @@
       <c r="AF137" s="2"/>
       <c r="AG137" s="2"/>
     </row>
-    <row r="138" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -15777,7 +15766,7 @@
       <c r="AF138" s="2"/>
       <c r="AG138" s="2"/>
     </row>
-    <row r="139" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -15840,7 +15829,7 @@
       <c r="AF139" s="2"/>
       <c r="AG139" s="2"/>
     </row>
-    <row r="140" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -15900,7 +15889,7 @@
       <c r="AF140" s="2"/>
       <c r="AG140" s="2"/>
     </row>
-    <row r="141" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -15960,7 +15949,7 @@
       <c r="AF141" s="2"/>
       <c r="AG141" s="2"/>
     </row>
-    <row r="142" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -16020,7 +16009,7 @@
       <c r="AF142" s="2"/>
       <c r="AG142" s="2"/>
     </row>
-    <row r="143" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -16080,7 +16069,7 @@
       <c r="AF143" s="2"/>
       <c r="AG143" s="2"/>
     </row>
-    <row r="144" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -16140,7 +16129,7 @@
       <c r="AF144" s="2"/>
       <c r="AG144" s="2"/>
     </row>
-    <row r="145" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -16200,7 +16189,7 @@
       <c r="AF145" s="2"/>
       <c r="AG145" s="2"/>
     </row>
-    <row r="146" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -16260,7 +16249,7 @@
       <c r="AF146" s="2"/>
       <c r="AG146" s="2"/>
     </row>
-    <row r="147" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -16317,7 +16306,7 @@
       <c r="AF147" s="2"/>
       <c r="AG147" s="2"/>
     </row>
-    <row r="148" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -16374,7 +16363,7 @@
       <c r="AF148" s="2"/>
       <c r="AG148" s="2"/>
     </row>
-    <row r="149" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -16431,7 +16420,7 @@
       <c r="AF149" s="2"/>
       <c r="AG149" s="2"/>
     </row>
-    <row r="150" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -16491,7 +16480,7 @@
       <c r="AF150" s="2"/>
       <c r="AG150" s="2"/>
     </row>
-    <row r="151" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -16551,7 +16540,7 @@
       <c r="AF151" s="2"/>
       <c r="AG151" s="2"/>
     </row>
-    <row r="152" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -16611,7 +16600,7 @@
       <c r="AF152" s="2"/>
       <c r="AG152" s="2"/>
     </row>
-    <row r="153" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -16671,7 +16660,7 @@
       <c r="AF153" s="2"/>
       <c r="AG153" s="2"/>
     </row>
-    <row r="154" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -16731,7 +16720,7 @@
       <c r="AF154" s="2"/>
       <c r="AG154" s="2"/>
     </row>
-    <row r="155" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -16791,7 +16780,7 @@
       <c r="AF155" s="2"/>
       <c r="AG155" s="2"/>
     </row>
-    <row r="156" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -16851,7 +16840,7 @@
       <c r="AF156" s="2"/>
       <c r="AG156" s="2"/>
     </row>
-    <row r="157" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -16911,7 +16900,7 @@
       <c r="AF157" s="2"/>
       <c r="AG157" s="2"/>
     </row>
-    <row r="158" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -16971,7 +16960,7 @@
       <c r="AF158" s="2"/>
       <c r="AG158" s="2"/>
     </row>
-    <row r="159" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -17031,7 +17020,7 @@
       <c r="AF159" s="2"/>
       <c r="AG159" s="2"/>
     </row>
-    <row r="160" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -17094,7 +17083,7 @@
       <c r="AF160" s="2"/>
       <c r="AG160" s="2"/>
     </row>
-    <row r="161" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -17154,7 +17143,7 @@
       <c r="AF161" s="2"/>
       <c r="AG161" s="2"/>
     </row>
-    <row r="162" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -17214,7 +17203,7 @@
       <c r="AF162" s="2"/>
       <c r="AG162" s="2"/>
     </row>
-    <row r="163" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -17274,7 +17263,7 @@
       <c r="AF163" s="2"/>
       <c r="AG163" s="2"/>
     </row>
-    <row r="164" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -17334,7 +17323,7 @@
       <c r="AF164" s="2"/>
       <c r="AG164" s="2"/>
     </row>
-    <row r="165" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -17391,7 +17380,7 @@
       <c r="AF165" s="2"/>
       <c r="AG165" s="2"/>
     </row>
-    <row r="166" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -17451,7 +17440,7 @@
       <c r="AF166" s="2"/>
       <c r="AG166" s="2"/>
     </row>
-    <row r="167" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -17511,7 +17500,7 @@
       <c r="AF167" s="2"/>
       <c r="AG167" s="2"/>
     </row>
-    <row r="168" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -17571,7 +17560,7 @@
       <c r="AF168" s="2"/>
       <c r="AG168" s="2"/>
     </row>
-    <row r="169" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -17631,7 +17620,7 @@
       <c r="AF169" s="2"/>
       <c r="AG169" s="2"/>
     </row>
-    <row r="170" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -17691,7 +17680,7 @@
       <c r="AF170" s="2"/>
       <c r="AG170" s="2"/>
     </row>
-    <row r="171" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -17751,7 +17740,7 @@
       <c r="AF171" s="2"/>
       <c r="AG171" s="2"/>
     </row>
-    <row r="172" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -17811,7 +17800,7 @@
       <c r="AF172" s="2"/>
       <c r="AG172" s="2"/>
     </row>
-    <row r="173" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -17871,7 +17860,7 @@
       <c r="AF173" s="2"/>
       <c r="AG173" s="2"/>
     </row>
-    <row r="174" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -17931,7 +17920,7 @@
       <c r="AF174" s="2"/>
       <c r="AG174" s="2"/>
     </row>
-    <row r="175" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -17991,7 +17980,7 @@
       <c r="AF175" s="2"/>
       <c r="AG175" s="2"/>
     </row>
-    <row r="176" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -18051,7 +18040,7 @@
       <c r="AF176" s="2"/>
       <c r="AG176" s="2"/>
     </row>
-    <row r="177" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -18111,7 +18100,7 @@
       <c r="AF177" s="2"/>
       <c r="AG177" s="2"/>
     </row>
-    <row r="178" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -18171,7 +18160,7 @@
       <c r="AF178" s="2"/>
       <c r="AG178" s="2"/>
     </row>
-    <row r="179" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -18231,7 +18220,7 @@
       <c r="AF179" s="2"/>
       <c r="AG179" s="2"/>
     </row>
-    <row r="180" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -18288,7 +18277,7 @@
       <c r="AF180" s="2"/>
       <c r="AG180" s="2"/>
     </row>
-    <row r="181" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -18348,7 +18337,7 @@
       <c r="AF181" s="2"/>
       <c r="AG181" s="2"/>
     </row>
-    <row r="182" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -18405,7 +18394,7 @@
       <c r="AF182" s="2"/>
       <c r="AG182" s="2"/>
     </row>
-    <row r="183" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -18465,7 +18454,7 @@
       <c r="AF183" s="2"/>
       <c r="AG183" s="2"/>
     </row>
-    <row r="184" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -18525,7 +18514,7 @@
       <c r="AF184" s="2"/>
       <c r="AG184" s="2"/>
     </row>
-    <row r="185" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -18585,7 +18574,7 @@
       <c r="AF185" s="2"/>
       <c r="AG185" s="2"/>
     </row>
-    <row r="186" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -18645,7 +18634,7 @@
       <c r="AF186" s="2"/>
       <c r="AG186" s="2"/>
     </row>
-    <row r="187" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -18705,7 +18694,7 @@
       <c r="AF187" s="2"/>
       <c r="AG187" s="2"/>
     </row>
-    <row r="188" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -18768,7 +18757,7 @@
       <c r="AF188" s="2"/>
       <c r="AG188" s="2"/>
     </row>
-    <row r="189" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -18828,7 +18817,7 @@
       <c r="AF189" s="2"/>
       <c r="AG189" s="2"/>
     </row>
-    <row r="190" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -18888,7 +18877,7 @@
       <c r="AF190" s="2"/>
       <c r="AG190" s="2"/>
     </row>
-    <row r="191" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -18948,7 +18937,7 @@
       <c r="AF191" s="2"/>
       <c r="AG191" s="2"/>
     </row>
-    <row r="192" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -19008,7 +18997,7 @@
       <c r="AF192" s="2"/>
       <c r="AG192" s="2"/>
     </row>
-    <row r="193" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -19068,7 +19057,7 @@
       <c r="AF193" s="2"/>
       <c r="AG193" s="2"/>
     </row>
-    <row r="194" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -19128,7 +19117,7 @@
       <c r="AF194" s="2"/>
       <c r="AG194" s="2"/>
     </row>
-    <row r="195" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -19185,7 +19174,7 @@
       <c r="AF195" s="2"/>
       <c r="AG195" s="2"/>
     </row>
-    <row r="196" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -19245,7 +19234,7 @@
       <c r="AF196" s="2"/>
       <c r="AG196" s="2"/>
     </row>
-    <row r="197" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -19308,7 +19297,7 @@
       <c r="AF197" s="2"/>
       <c r="AG197" s="2"/>
     </row>
-    <row r="198" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -19371,7 +19360,7 @@
       <c r="AF198" s="2"/>
       <c r="AG198" s="2"/>
     </row>
-    <row r="199" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -19431,7 +19420,7 @@
       <c r="AF199" s="2"/>
       <c r="AG199" s="2"/>
     </row>
-    <row r="200" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -19491,7 +19480,7 @@
       <c r="AF200" s="2"/>
       <c r="AG200" s="2"/>
     </row>
-    <row r="201" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -19551,7 +19540,7 @@
       <c r="AF201" s="2"/>
       <c r="AG201" s="2"/>
     </row>
-    <row r="202" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -19611,7 +19600,7 @@
       <c r="AF202" s="2"/>
       <c r="AG202" s="2"/>
     </row>
-    <row r="203" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -19671,7 +19660,7 @@
       <c r="AF203" s="2"/>
       <c r="AG203" s="2"/>
     </row>
-    <row r="204" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -19731,7 +19720,7 @@
       <c r="AF204" s="2"/>
       <c r="AG204" s="2"/>
     </row>
-    <row r="205" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -19791,7 +19780,7 @@
       <c r="AF205" s="2"/>
       <c r="AG205" s="2"/>
     </row>
-    <row r="206" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -19854,7 +19843,7 @@
       <c r="AF206" s="2"/>
       <c r="AG206" s="2"/>
     </row>
-    <row r="207" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -19914,7 +19903,7 @@
       <c r="AF207" s="2"/>
       <c r="AG207" s="2"/>
     </row>
-    <row r="208" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -19977,7 +19966,7 @@
       <c r="AF208" s="2"/>
       <c r="AG208" s="2"/>
     </row>
-    <row r="209" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -20040,7 +20029,7 @@
       <c r="AF209" s="2"/>
       <c r="AG209" s="2"/>
     </row>
-    <row r="210" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -20103,7 +20092,7 @@
       <c r="AF210" s="2"/>
       <c r="AG210" s="2"/>
     </row>
-    <row r="211" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -20166,7 +20155,7 @@
       <c r="AF211" s="2"/>
       <c r="AG211" s="2"/>
     </row>
-    <row r="212" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -20229,7 +20218,7 @@
       <c r="AF212" s="2"/>
       <c r="AG212" s="2"/>
     </row>
-    <row r="213" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -20292,7 +20281,7 @@
       <c r="AF213" s="2"/>
       <c r="AG213" s="2"/>
     </row>
-    <row r="214" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -20358,7 +20347,7 @@
       <c r="AF214" s="2"/>
       <c r="AG214" s="2"/>
     </row>
-    <row r="215" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -20421,7 +20410,7 @@
       <c r="AF215" s="2"/>
       <c r="AG215" s="2"/>
     </row>
-    <row r="216" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -20484,7 +20473,7 @@
       <c r="AF216" s="2"/>
       <c r="AG216" s="2"/>
     </row>
-    <row r="217" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -20547,7 +20536,7 @@
       <c r="AF217" s="2"/>
       <c r="AG217" s="2"/>
     </row>
-    <row r="218" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -20602,7 +20591,7 @@
       <c r="AF218" s="2"/>
       <c r="AG218" s="2"/>
     </row>
-    <row r="219" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -20657,7 +20646,7 @@
       <c r="AF219" s="2"/>
       <c r="AG219" s="2"/>
     </row>
-    <row r="220" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -20712,7 +20701,7 @@
       <c r="AF220" s="2"/>
       <c r="AG220" s="2"/>
     </row>
-    <row r="221" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -20772,7 +20761,7 @@
       <c r="AF221" s="2"/>
       <c r="AG221" s="2"/>
     </row>
-    <row r="222" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -20832,7 +20821,7 @@
       <c r="AF222" s="2"/>
       <c r="AG222" s="2"/>
     </row>
-    <row r="223" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -20890,7 +20879,7 @@
       <c r="AF223" s="2"/>
       <c r="AG223" s="2"/>
     </row>
-    <row r="224" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -20945,7 +20934,7 @@
       <c r="AF224" s="2"/>
       <c r="AG224" s="2"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -20999,7 +20988,7 @@
       <c r="AF225" s="2"/>
       <c r="AG225" s="2"/>
     </row>
-    <row r="226" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -21054,7 +21043,7 @@
       <c r="AF226" s="2"/>
       <c r="AG226" s="2"/>
     </row>
-    <row r="227" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -21108,7 +21097,7 @@
       <c r="AF227" s="2"/>
       <c r="AG227" s="2"/>
     </row>
-    <row r="228" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -21163,7 +21152,7 @@
       <c r="AF228" s="2"/>
       <c r="AG228" s="2"/>
     </row>
-    <row r="229" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -21218,7 +21207,7 @@
       <c r="AF229" s="2"/>
       <c r="AG229" s="2"/>
     </row>
-    <row r="230" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -21273,7 +21262,7 @@
       <c r="AF230" s="2"/>
       <c r="AG230" s="2"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -21328,7 +21317,7 @@
       <c r="AF231" s="2"/>
       <c r="AG231" s="2"/>
     </row>
-    <row r="232" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -21383,7 +21372,7 @@
       <c r="AF232" s="2"/>
       <c r="AG232" s="2"/>
     </row>
-    <row r="233" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -21437,7 +21426,7 @@
       <c r="AF233" s="2"/>
       <c r="AG233" s="2"/>
     </row>
-    <row r="234" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -21491,7 +21480,7 @@
       <c r="AF234" s="2"/>
       <c r="AG234" s="2"/>
     </row>
-    <row r="235" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -21545,7 +21534,7 @@
       <c r="AF235" s="2"/>
       <c r="AG235" s="2"/>
     </row>
-    <row r="236" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -21599,7 +21588,7 @@
       <c r="AF236" s="2"/>
       <c r="AG236" s="2"/>
     </row>
-    <row r="237" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -21654,7 +21643,7 @@
       <c r="AF237" s="2"/>
       <c r="AG237" s="2"/>
     </row>
-    <row r="238" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -21708,7 +21697,7 @@
       <c r="AF238" s="2"/>
       <c r="AG238" s="2"/>
     </row>
-    <row r="239" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -21762,7 +21751,7 @@
       <c r="AF239" s="2"/>
       <c r="AG239" s="2"/>
     </row>
-    <row r="240" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -21816,7 +21805,7 @@
       <c r="AF240" s="2"/>
       <c r="AG240" s="2"/>
     </row>
-    <row r="241" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -21870,7 +21859,7 @@
       <c r="AF241" s="2"/>
       <c r="AG241" s="2"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -21924,7 +21913,7 @@
       <c r="AF242" s="2"/>
       <c r="AG242" s="2"/>
     </row>
-    <row r="243" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -21978,7 +21967,7 @@
       <c r="AF243" s="2"/>
       <c r="AG243" s="2"/>
     </row>
-    <row r="244" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -22032,7 +22021,7 @@
       <c r="AF244" s="2"/>
       <c r="AG244" s="2"/>
     </row>
-    <row r="245" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -22086,7 +22075,7 @@
       <c r="AF245" s="2"/>
       <c r="AG245" s="2"/>
     </row>
-    <row r="246" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -22143,7 +22132,7 @@
       <c r="AF246" s="2"/>
       <c r="AG246" s="2"/>
     </row>
-    <row r="247" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -22197,7 +22186,7 @@
       <c r="AF247" s="2"/>
       <c r="AG247" s="2"/>
     </row>
-    <row r="248" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -22254,7 +22243,7 @@
       <c r="AF248" s="2"/>
       <c r="AG248" s="2"/>
     </row>
-    <row r="249" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -22308,7 +22297,7 @@
       <c r="AF249" s="2"/>
       <c r="AG249" s="2"/>
     </row>
-    <row r="250" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -22362,7 +22351,7 @@
       <c r="AF250" s="2"/>
       <c r="AG250" s="2"/>
     </row>
-    <row r="251" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -22416,7 +22405,7 @@
       <c r="AF251" s="2"/>
       <c r="AG251" s="2"/>
     </row>
-    <row r="252" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -22470,7 +22459,7 @@
       <c r="AF252" s="2"/>
       <c r="AG252" s="2"/>
     </row>
-    <row r="253" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -22524,7 +22513,7 @@
       <c r="AF253" s="2"/>
       <c r="AG253" s="2"/>
     </row>
-    <row r="254" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -22578,7 +22567,7 @@
       <c r="AF254" s="2"/>
       <c r="AG254" s="2"/>
     </row>
-    <row r="255" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -22632,7 +22621,7 @@
       <c r="AF255" s="2"/>
       <c r="AG255" s="2"/>
     </row>
-    <row r="256" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -22686,7 +22675,7 @@
       <c r="AF256" s="2"/>
       <c r="AG256" s="2"/>
     </row>
-    <row r="257" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -22740,7 +22729,7 @@
       <c r="AF257" s="2"/>
       <c r="AG257" s="2"/>
     </row>
-    <row r="258" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -22794,7 +22783,7 @@
       <c r="AF258" s="2"/>
       <c r="AG258" s="2"/>
     </row>
-    <row r="259" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -22848,7 +22837,7 @@
       <c r="AF259" s="2"/>
       <c r="AG259" s="2"/>
     </row>
-    <row r="260" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -22902,7 +22891,7 @@
       <c r="AF260" s="2"/>
       <c r="AG260" s="2"/>
     </row>
-    <row r="261" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -22956,7 +22945,7 @@
       <c r="AF261" s="2"/>
       <c r="AG261" s="2"/>
     </row>
-    <row r="262" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -23010,7 +22999,7 @@
       <c r="AF262" s="2"/>
       <c r="AG262" s="2"/>
     </row>
-    <row r="263" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -23064,7 +23053,7 @@
       <c r="AF263" s="2"/>
       <c r="AG263" s="2"/>
     </row>
-    <row r="264" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -23118,7 +23107,7 @@
       <c r="AF264" s="2"/>
       <c r="AG264" s="2"/>
     </row>
-    <row r="265" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -23172,7 +23161,7 @@
       <c r="AF265" s="2"/>
       <c r="AG265" s="2"/>
     </row>
-    <row r="266" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -23226,7 +23215,7 @@
       <c r="AF266" s="2"/>
       <c r="AG266" s="2"/>
     </row>
-    <row r="267" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -23280,7 +23269,7 @@
       <c r="AF267" s="2"/>
       <c r="AG267" s="2"/>
     </row>
-    <row r="268" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -23334,7 +23323,7 @@
       <c r="AF268" s="2"/>
       <c r="AG268" s="2"/>
     </row>
-    <row r="269" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -23388,7 +23377,7 @@
       <c r="AF269" s="2"/>
       <c r="AG269" s="2"/>
     </row>
-    <row r="270" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -23442,7 +23431,7 @@
       <c r="AF270" s="2"/>
       <c r="AG270" s="2"/>
     </row>
-    <row r="271" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -23496,7 +23485,7 @@
       <c r="AF271" s="2"/>
       <c r="AG271" s="2"/>
     </row>
-    <row r="272" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -23550,7 +23539,7 @@
       <c r="AF272" s="2"/>
       <c r="AG272" s="2"/>
     </row>
-    <row r="273" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -23604,7 +23593,7 @@
       <c r="AF273" s="2"/>
       <c r="AG273" s="2"/>
     </row>
-    <row r="274" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -23658,7 +23647,7 @@
       <c r="AF274" s="2"/>
       <c r="AG274" s="2"/>
     </row>
-    <row r="275" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -23712,7 +23701,7 @@
       <c r="AF275" s="2"/>
       <c r="AG275" s="2"/>
     </row>
-    <row r="276" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -23766,7 +23755,7 @@
       <c r="AF276" s="2"/>
       <c r="AG276" s="2"/>
     </row>
-    <row r="277" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -23820,7 +23809,7 @@
       <c r="AF277" s="2"/>
       <c r="AG277" s="2"/>
     </row>
-    <row r="278" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -23874,7 +23863,7 @@
       <c r="AF278" s="2"/>
       <c r="AG278" s="2"/>
     </row>
-    <row r="279" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -23928,7 +23917,7 @@
       <c r="AF279" s="2"/>
       <c r="AG279" s="2"/>
     </row>
-    <row r="280" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -23982,7 +23971,7 @@
       <c r="AF280" s="2"/>
       <c r="AG280" s="2"/>
     </row>
-    <row r="281" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -24036,7 +24025,7 @@
       <c r="AF281" s="2"/>
       <c r="AG281" s="2"/>
     </row>
-    <row r="282" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -24090,7 +24079,7 @@
       <c r="AF282" s="2"/>
       <c r="AG282" s="2"/>
     </row>
-    <row r="283" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -24144,7 +24133,7 @@
       <c r="AF283" s="2"/>
       <c r="AG283" s="2"/>
     </row>
-    <row r="284" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -24198,7 +24187,7 @@
       <c r="AF284" s="2"/>
       <c r="AG284" s="2"/>
     </row>
-    <row r="285" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -24252,7 +24241,7 @@
       <c r="AF285" s="2"/>
       <c r="AG285" s="2"/>
     </row>
-    <row r="286" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -24306,7 +24295,7 @@
       <c r="AF286" s="2"/>
       <c r="AG286" s="2"/>
     </row>
-    <row r="287" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -24360,7 +24349,7 @@
       <c r="AF287" s="2"/>
       <c r="AG287" s="2"/>
     </row>
-    <row r="288" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -24414,7 +24403,7 @@
       <c r="AF288" s="2"/>
       <c r="AG288" s="2"/>
     </row>
-    <row r="289" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -24468,7 +24457,7 @@
       <c r="AF289" s="2"/>
       <c r="AG289" s="2"/>
     </row>
-    <row r="290" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -24522,7 +24511,7 @@
       <c r="AF290" s="2"/>
       <c r="AG290" s="2"/>
     </row>
-    <row r="291" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -24576,7 +24565,7 @@
       <c r="AF291" s="2"/>
       <c r="AG291" s="2"/>
     </row>
-    <row r="292" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -24630,7 +24619,7 @@
       <c r="AF292" s="2"/>
       <c r="AG292" s="2"/>
     </row>
-    <row r="293" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -24684,7 +24673,7 @@
       <c r="AF293" s="2"/>
       <c r="AG293" s="2"/>
     </row>
-    <row r="294" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -24738,7 +24727,7 @@
       <c r="AF294" s="2"/>
       <c r="AG294" s="2"/>
     </row>
-    <row r="295" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -24792,7 +24781,7 @@
       <c r="AF295" s="2"/>
       <c r="AG295" s="2"/>
     </row>
-    <row r="296" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -24846,7 +24835,7 @@
       <c r="AF296" s="2"/>
       <c r="AG296" s="2"/>
     </row>
-    <row r="297" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -24900,7 +24889,7 @@
       <c r="AF297" s="2"/>
       <c r="AG297" s="2"/>
     </row>
-    <row r="298" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -24954,7 +24943,7 @@
       <c r="AF298" s="2"/>
       <c r="AG298" s="2"/>
     </row>
-    <row r="299" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -25008,7 +24997,7 @@
       <c r="AF299" s="2"/>
       <c r="AG299" s="2"/>
     </row>
-    <row r="300" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -25062,7 +25051,7 @@
       <c r="AF300" s="2"/>
       <c r="AG300" s="2"/>
     </row>
-    <row r="301" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -25116,7 +25105,7 @@
       <c r="AF301" s="2"/>
       <c r="AG301" s="2"/>
     </row>
-    <row r="302" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -25170,7 +25159,7 @@
       <c r="AF302" s="2"/>
       <c r="AG302" s="2"/>
     </row>
-    <row r="303" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -25224,7 +25213,7 @@
       <c r="AF303" s="2"/>
       <c r="AG303" s="2"/>
     </row>
-    <row r="304" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -25278,7 +25267,7 @@
       <c r="AF304" s="2"/>
       <c r="AG304" s="2"/>
     </row>
-    <row r="305" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -25332,7 +25321,7 @@
       <c r="AF305" s="2"/>
       <c r="AG305" s="2"/>
     </row>
-    <row r="306" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -25386,7 +25375,7 @@
       <c r="AF306" s="2"/>
       <c r="AG306" s="2"/>
     </row>
-    <row r="307" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -25440,7 +25429,7 @@
       <c r="AF307" s="2"/>
       <c r="AG307" s="2"/>
     </row>
-    <row r="308" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -25494,7 +25483,7 @@
       <c r="AF308" s="2"/>
       <c r="AG308" s="2"/>
     </row>
-    <row r="309" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -25548,7 +25537,7 @@
       <c r="AF309" s="2"/>
       <c r="AG309" s="2"/>
     </row>
-    <row r="310" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -25602,7 +25591,7 @@
       <c r="AF310" s="2"/>
       <c r="AG310" s="2"/>
     </row>
-    <row r="311" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -25656,7 +25645,7 @@
       <c r="AF311" s="2"/>
       <c r="AG311" s="2"/>
     </row>
-    <row r="312" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -25710,7 +25699,7 @@
       <c r="AF312" s="2"/>
       <c r="AG312" s="2"/>
     </row>
-    <row r="313" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -25764,7 +25753,7 @@
       <c r="AF313" s="2"/>
       <c r="AG313" s="2"/>
     </row>
-    <row r="314" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -25818,7 +25807,7 @@
       <c r="AF314" s="2"/>
       <c r="AG314" s="2"/>
     </row>
-    <row r="315" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -25872,7 +25861,7 @@
       <c r="AF315" s="2"/>
       <c r="AG315" s="2"/>
     </row>
-    <row r="316" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -25926,7 +25915,7 @@
       <c r="AF316" s="2"/>
       <c r="AG316" s="2"/>
     </row>
-    <row r="317" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -25980,7 +25969,7 @@
       <c r="AF317" s="2"/>
       <c r="AG317" s="2"/>
     </row>
-    <row r="318" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -26034,7 +26023,7 @@
       <c r="AF318" s="2"/>
       <c r="AG318" s="2"/>
     </row>
-    <row r="319" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -26088,7 +26077,7 @@
       <c r="AF319" s="2"/>
       <c r="AG319" s="2"/>
     </row>
-    <row r="320" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -26142,7 +26131,7 @@
       <c r="AF320" s="2"/>
       <c r="AG320" s="2"/>
     </row>
-    <row r="321" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -26196,7 +26185,7 @@
       <c r="AF321" s="2"/>
       <c r="AG321" s="2"/>
     </row>
-    <row r="322" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -26250,7 +26239,7 @@
       <c r="AF322" s="2"/>
       <c r="AG322" s="2"/>
     </row>
-    <row r="323" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -26304,7 +26293,7 @@
       <c r="AF323" s="2"/>
       <c r="AG323" s="2"/>
     </row>
-    <row r="324" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -26358,7 +26347,7 @@
       <c r="AF324" s="2"/>
       <c r="AG324" s="2"/>
     </row>
-    <row r="325" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -26412,7 +26401,7 @@
       <c r="AF325" s="2"/>
       <c r="AG325" s="2"/>
     </row>
-    <row r="326" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -26466,7 +26455,7 @@
       <c r="AF326" s="2"/>
       <c r="AG326" s="2"/>
     </row>
-    <row r="327" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -26520,7 +26509,7 @@
       <c r="AF327" s="2"/>
       <c r="AG327" s="2"/>
     </row>
-    <row r="328" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -26574,7 +26563,7 @@
       <c r="AF328" s="2"/>
       <c r="AG328" s="2"/>
     </row>
-    <row r="329" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -26628,7 +26617,7 @@
       <c r="AF329" s="2"/>
       <c r="AG329" s="2"/>
     </row>
-    <row r="330" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -26682,7 +26671,7 @@
       <c r="AF330" s="2"/>
       <c r="AG330" s="2"/>
     </row>
-    <row r="331" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -26736,7 +26725,7 @@
       <c r="AF331" s="2"/>
       <c r="AG331" s="2"/>
     </row>
-    <row r="332" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -26790,7 +26779,7 @@
       <c r="AF332" s="2"/>
       <c r="AG332" s="2"/>
     </row>
-    <row r="333" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -26844,7 +26833,7 @@
       <c r="AF333" s="2"/>
       <c r="AG333" s="2"/>
     </row>
-    <row r="334" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -26898,7 +26887,7 @@
       <c r="AF334" s="2"/>
       <c r="AG334" s="2"/>
     </row>
-    <row r="335" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -26952,7 +26941,7 @@
       <c r="AF335" s="2"/>
       <c r="AG335" s="2"/>
     </row>
-    <row r="336" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -27006,7 +26995,7 @@
       <c r="AF336" s="2"/>
       <c r="AG336" s="2"/>
     </row>
-    <row r="337" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -27060,7 +27049,7 @@
       <c r="AF337" s="2"/>
       <c r="AG337" s="2"/>
     </row>
-    <row r="338" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -27114,7 +27103,7 @@
       <c r="AF338" s="2"/>
       <c r="AG338" s="2"/>
     </row>
-    <row r="339" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -27168,7 +27157,7 @@
       <c r="AF339" s="2"/>
       <c r="AG339" s="2"/>
     </row>
-    <row r="340" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -27222,7 +27211,7 @@
       <c r="AF340" s="2"/>
       <c r="AG340" s="2"/>
     </row>
-    <row r="341" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -27276,7 +27265,7 @@
       <c r="AF341" s="2"/>
       <c r="AG341" s="2"/>
     </row>
-    <row r="342" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -27330,7 +27319,7 @@
       <c r="AF342" s="2"/>
       <c r="AG342" s="2"/>
     </row>
-    <row r="343" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -27384,7 +27373,7 @@
       <c r="AF343" s="2"/>
       <c r="AG343" s="2"/>
     </row>
-    <row r="344" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -27438,7 +27427,7 @@
       <c r="AF344" s="2"/>
       <c r="AG344" s="2"/>
     </row>
-    <row r="345" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -27492,7 +27481,7 @@
       <c r="AF345" s="2"/>
       <c r="AG345" s="2"/>
     </row>
-    <row r="346" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -27546,7 +27535,7 @@
       <c r="AF346" s="2"/>
       <c r="AG346" s="2"/>
     </row>
-    <row r="347" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -27600,7 +27589,7 @@
       <c r="AF347" s="2"/>
       <c r="AG347" s="2"/>
     </row>
-    <row r="348" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -27654,7 +27643,7 @@
       <c r="AF348" s="2"/>
       <c r="AG348" s="2"/>
     </row>
-    <row r="349" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -27708,7 +27697,7 @@
       <c r="AF349" s="2"/>
       <c r="AG349" s="2"/>
     </row>
-    <row r="350" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -27762,7 +27751,7 @@
       <c r="AF350" s="2"/>
       <c r="AG350" s="2"/>
     </row>
-    <row r="351" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -27816,7 +27805,7 @@
       <c r="AF351" s="2"/>
       <c r="AG351" s="2"/>
     </row>
-    <row r="352" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -27870,7 +27859,7 @@
       <c r="AF352" s="2"/>
       <c r="AG352" s="2"/>
     </row>
-    <row r="353" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -27924,7 +27913,7 @@
       <c r="AF353" s="2"/>
       <c r="AG353" s="2"/>
     </row>
-    <row r="354" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -27978,7 +27967,7 @@
       <c r="AF354" s="2"/>
       <c r="AG354" s="2"/>
     </row>
-    <row r="355" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -28032,7 +28021,7 @@
       <c r="AF355" s="2"/>
       <c r="AG355" s="2"/>
     </row>
-    <row r="356" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -28086,7 +28075,7 @@
       <c r="AF356" s="2"/>
       <c r="AG356" s="2"/>
     </row>
-    <row r="357" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -28140,7 +28129,7 @@
       <c r="AF357" s="2"/>
       <c r="AG357" s="2"/>
     </row>
-    <row r="358" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -28194,7 +28183,7 @@
       <c r="AF358" s="2"/>
       <c r="AG358" s="2"/>
     </row>
-    <row r="359" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -28248,7 +28237,7 @@
       <c r="AF359" s="2"/>
       <c r="AG359" s="2"/>
     </row>
-    <row r="360" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -28302,7 +28291,7 @@
       <c r="AF360" s="2"/>
       <c r="AG360" s="2"/>
     </row>
-    <row r="361" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -28356,7 +28345,7 @@
       <c r="AF361" s="2"/>
       <c r="AG361" s="2"/>
     </row>
-    <row r="362" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -28410,7 +28399,7 @@
       <c r="AF362" s="2"/>
       <c r="AG362" s="2"/>
     </row>
-    <row r="363" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -28464,7 +28453,7 @@
       <c r="AF363" s="2"/>
       <c r="AG363" s="2"/>
     </row>
-    <row r="364" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -28518,7 +28507,7 @@
       <c r="AF364" s="2"/>
       <c r="AG364" s="2"/>
     </row>
-    <row r="365" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -28572,7 +28561,7 @@
       <c r="AF365" s="2"/>
       <c r="AG365" s="2"/>
     </row>
-    <row r="366" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -28626,7 +28615,7 @@
       <c r="AF366" s="2"/>
       <c r="AG366" s="2"/>
     </row>
-    <row r="367" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -28680,7 +28669,7 @@
       <c r="AF367" s="2"/>
       <c r="AG367" s="2"/>
     </row>
-    <row r="368" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -28743,7 +28732,7 @@
       <c r="AF368" s="2"/>
       <c r="AG368" s="2"/>
     </row>
-    <row r="369" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -28797,7 +28786,7 @@
       <c r="AF369" s="2"/>
       <c r="AG369" s="2"/>
     </row>
-    <row r="370" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -28851,7 +28840,7 @@
       <c r="AF370" s="2"/>
       <c r="AG370" s="2"/>
     </row>
-    <row r="371" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -28905,7 +28894,7 @@
       <c r="AF371" s="2"/>
       <c r="AG371" s="2"/>
     </row>
-    <row r="372" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -28959,7 +28948,7 @@
       <c r="AF372" s="2"/>
       <c r="AG372" s="2"/>
     </row>
-    <row r="373" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -29013,7 +29002,7 @@
       <c r="AF373" s="2"/>
       <c r="AG373" s="2"/>
     </row>
-    <row r="374" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -29067,7 +29056,7 @@
       <c r="AF374" s="2"/>
       <c r="AG374" s="2"/>
     </row>
-    <row r="375" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -29121,7 +29110,7 @@
       <c r="AF375" s="2"/>
       <c r="AG375" s="2"/>
     </row>
-    <row r="376" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -29175,7 +29164,7 @@
       <c r="AF376" s="2"/>
       <c r="AG376" s="2"/>
     </row>
-    <row r="377" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -29229,7 +29218,7 @@
       <c r="AF377" s="2"/>
       <c r="AG377" s="2"/>
     </row>
-    <row r="378" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -29283,7 +29272,7 @@
       <c r="AF378" s="2"/>
       <c r="AG378" s="2"/>
     </row>
-    <row r="379" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -29337,7 +29326,7 @@
       <c r="AF379" s="2"/>
       <c r="AG379" s="2"/>
     </row>
-    <row r="380" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -29391,7 +29380,7 @@
       <c r="AF380" s="2"/>
       <c r="AG380" s="2"/>
     </row>
-    <row r="381" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -29445,7 +29434,7 @@
       <c r="AF381" s="2"/>
       <c r="AG381" s="2"/>
     </row>
-    <row r="382" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -29499,7 +29488,7 @@
       <c r="AF382" s="2"/>
       <c r="AG382" s="2"/>
     </row>
-    <row r="383" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -29553,7 +29542,7 @@
       <c r="AF383" s="2"/>
       <c r="AG383" s="2"/>
     </row>
-    <row r="384" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -29607,7 +29596,7 @@
       <c r="AF384" s="2"/>
       <c r="AG384" s="2"/>
     </row>
-    <row r="385" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -29661,7 +29650,7 @@
       <c r="AF385" s="2"/>
       <c r="AG385" s="2"/>
     </row>
-    <row r="386" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -29715,7 +29704,7 @@
       <c r="AF386" s="2"/>
       <c r="AG386" s="2"/>
     </row>
-    <row r="387" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -29769,7 +29758,7 @@
       <c r="AF387" s="2"/>
       <c r="AG387" s="2"/>
     </row>
-    <row r="388" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -29823,7 +29812,7 @@
       <c r="AF388" s="2"/>
       <c r="AG388" s="2"/>
     </row>
-    <row r="389" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -29877,7 +29866,7 @@
       <c r="AF389" s="2"/>
       <c r="AG389" s="2"/>
     </row>
-    <row r="390" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -29931,7 +29920,7 @@
       <c r="AF390" s="2"/>
       <c r="AG390" s="2"/>
     </row>
-    <row r="391" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -29985,7 +29974,7 @@
       <c r="AF391" s="2"/>
       <c r="AG391" s="2"/>
     </row>
-    <row r="392" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -30039,7 +30028,7 @@
       <c r="AF392" s="2"/>
       <c r="AG392" s="2"/>
     </row>
-    <row r="393" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -30093,7 +30082,7 @@
       <c r="AF393" s="2"/>
       <c r="AG393" s="2"/>
     </row>
-    <row r="394" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -30147,7 +30136,7 @@
       <c r="AF394" s="2"/>
       <c r="AG394" s="2"/>
     </row>
-    <row r="395" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -30201,7 +30190,7 @@
       <c r="AF395" s="2"/>
       <c r="AG395" s="2"/>
     </row>
-    <row r="396" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -30255,7 +30244,7 @@
       <c r="AF396" s="2"/>
       <c r="AG396" s="2"/>
     </row>
-    <row r="397" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -30309,7 +30298,7 @@
       <c r="AF397" s="2"/>
       <c r="AG397" s="2"/>
     </row>
-    <row r="398" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -30363,7 +30352,7 @@
       <c r="AF398" s="2"/>
       <c r="AG398" s="2"/>
     </row>
-    <row r="399" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -30420,7 +30409,7 @@
       <c r="AF399" s="2"/>
       <c r="AG399" s="2"/>
     </row>
-    <row r="400" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -30474,7 +30463,7 @@
       <c r="AF400" s="2"/>
       <c r="AG400" s="2"/>
     </row>
-    <row r="401" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -30528,7 +30517,7 @@
       <c r="AF401" s="2"/>
       <c r="AG401" s="2"/>
     </row>
-    <row r="402" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -30582,7 +30571,7 @@
       <c r="AF402" s="2"/>
       <c r="AG402" s="2"/>
     </row>
-    <row r="403" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -30636,7 +30625,7 @@
       <c r="AF403" s="2"/>
       <c r="AG403" s="2"/>
     </row>
-    <row r="404" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -30690,7 +30679,7 @@
       <c r="AF404" s="2"/>
       <c r="AG404" s="2"/>
     </row>
-    <row r="405" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -30744,7 +30733,7 @@
       <c r="AF405" s="2"/>
       <c r="AG405" s="2"/>
     </row>
-    <row r="406" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -30798,7 +30787,7 @@
       <c r="AF406" s="2"/>
       <c r="AG406" s="2"/>
     </row>
-    <row r="407" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -30852,7 +30841,7 @@
       <c r="AF407" s="2"/>
       <c r="AG407" s="2"/>
     </row>
-    <row r="408" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -30906,7 +30895,7 @@
       <c r="AF408" s="2"/>
       <c r="AG408" s="2"/>
     </row>
-    <row r="409" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -30960,7 +30949,7 @@
       <c r="AF409" s="2"/>
       <c r="AG409" s="2"/>
     </row>
-    <row r="410" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -31014,7 +31003,7 @@
       <c r="AF410" s="2"/>
       <c r="AG410" s="2"/>
     </row>
-    <row r="411" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -31068,7 +31057,7 @@
       <c r="AF411" s="2"/>
       <c r="AG411" s="2"/>
     </row>
-    <row r="412" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -31122,7 +31111,7 @@
       <c r="AF412" s="2"/>
       <c r="AG412" s="2"/>
     </row>
-    <row r="413" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -31176,7 +31165,7 @@
       <c r="AF413" s="2"/>
       <c r="AG413" s="2"/>
     </row>
-    <row r="414" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -31230,7 +31219,7 @@
       <c r="AF414" s="2"/>
       <c r="AG414" s="2"/>
     </row>
-    <row r="415" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -31284,7 +31273,7 @@
       <c r="AF415" s="2"/>
       <c r="AG415" s="2"/>
     </row>
-    <row r="416" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -31338,7 +31327,7 @@
       <c r="AF416" s="2"/>
       <c r="AG416" s="2"/>
     </row>
-    <row r="417" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -31392,7 +31381,7 @@
       <c r="AF417" s="2"/>
       <c r="AG417" s="2"/>
     </row>
-    <row r="418" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -31446,7 +31435,7 @@
       <c r="AF418" s="2"/>
       <c r="AG418" s="2"/>
     </row>
-    <row r="419" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -31500,7 +31489,7 @@
       <c r="AF419" s="2"/>
       <c r="AG419" s="2"/>
     </row>
-    <row r="420" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -31554,7 +31543,7 @@
       <c r="AF420" s="2"/>
       <c r="AG420" s="2"/>
     </row>
-    <row r="421" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -31608,7 +31597,7 @@
       <c r="AF421" s="2"/>
       <c r="AG421" s="2"/>
     </row>
-    <row r="422" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -31662,7 +31651,7 @@
       <c r="AF422" s="2"/>
       <c r="AG422" s="2"/>
     </row>
-    <row r="423" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -31716,7 +31705,7 @@
       <c r="AF423" s="2"/>
       <c r="AG423" s="2"/>
     </row>
-    <row r="424" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -31770,7 +31759,7 @@
       <c r="AF424" s="2"/>
       <c r="AG424" s="2"/>
     </row>
-    <row r="425" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -31824,7 +31813,7 @@
       <c r="AF425" s="2"/>
       <c r="AG425" s="2"/>
     </row>
-    <row r="426" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -31878,7 +31867,7 @@
       <c r="AF426" s="2"/>
       <c r="AG426" s="2"/>
     </row>
-    <row r="427" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -31932,7 +31921,7 @@
       <c r="AF427" s="2"/>
       <c r="AG427" s="2"/>
     </row>
-    <row r="428" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -31986,7 +31975,7 @@
       <c r="AF428" s="2"/>
       <c r="AG428" s="2"/>
     </row>
-    <row r="429" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -32040,7 +32029,7 @@
       <c r="AF429" s="2"/>
       <c r="AG429" s="2"/>
     </row>
-    <row r="430" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -32094,7 +32083,7 @@
       <c r="AF430" s="2"/>
       <c r="AG430" s="2"/>
     </row>
-    <row r="431" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -32148,7 +32137,7 @@
       <c r="AF431" s="2"/>
       <c r="AG431" s="2"/>
     </row>
-    <row r="432" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -32202,7 +32191,7 @@
       <c r="AF432" s="2"/>
       <c r="AG432" s="2"/>
     </row>
-    <row r="433" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -32256,7 +32245,7 @@
       <c r="AF433" s="2"/>
       <c r="AG433" s="2"/>
     </row>
-    <row r="434" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -32310,7 +32299,7 @@
       <c r="AF434" s="2"/>
       <c r="AG434" s="2"/>
     </row>
-    <row r="435" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -32364,7 +32353,7 @@
       <c r="AF435" s="2"/>
       <c r="AG435" s="2"/>
     </row>
-    <row r="436" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -32418,7 +32407,7 @@
       <c r="AF436" s="2"/>
       <c r="AG436" s="2"/>
     </row>
-    <row r="437" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -32472,7 +32461,7 @@
       <c r="AF437" s="2"/>
       <c r="AG437" s="2"/>
     </row>
-    <row r="438" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -32526,7 +32515,7 @@
       <c r="AF438" s="2"/>
       <c r="AG438" s="2"/>
     </row>
-    <row r="439" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -32580,7 +32569,7 @@
       <c r="AF439" s="2"/>
       <c r="AG439" s="2"/>
     </row>
-    <row r="440" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -32634,7 +32623,7 @@
       <c r="AF440" s="2"/>
       <c r="AG440" s="2"/>
     </row>
-    <row r="441" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -32688,7 +32677,7 @@
       <c r="AF441" s="2"/>
       <c r="AG441" s="2"/>
     </row>
-    <row r="442" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -32742,7 +32731,7 @@
       <c r="AF442" s="2"/>
       <c r="AG442" s="2"/>
     </row>
-    <row r="443" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -32796,7 +32785,7 @@
       <c r="AF443" s="2"/>
       <c r="AG443" s="2"/>
     </row>
-    <row r="444" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -32853,7 +32842,7 @@
       <c r="AF444" s="2"/>
       <c r="AG444" s="2"/>
     </row>
-    <row r="445" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -32910,7 +32899,7 @@
       <c r="AF445" s="2"/>
       <c r="AG445" s="2"/>
     </row>
-    <row r="446" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -32967,7 +32956,7 @@
       <c r="AF446" s="2"/>
       <c r="AG446" s="2"/>
     </row>
-    <row r="447" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -33024,7 +33013,7 @@
       <c r="AF447" s="2"/>
       <c r="AG447" s="2"/>
     </row>
-    <row r="448" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -33081,7 +33070,7 @@
       <c r="AF448" s="2"/>
       <c r="AG448" s="2"/>
     </row>
-    <row r="449" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -33138,7 +33127,7 @@
       <c r="AF449" s="2"/>
       <c r="AG449" s="2"/>
     </row>
-    <row r="450" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -33192,7 +33181,7 @@
       <c r="AF450" s="2"/>
       <c r="AG450" s="2"/>
     </row>
-    <row r="451" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -33246,7 +33235,7 @@
       <c r="AF451" s="2"/>
       <c r="AG451" s="2"/>
     </row>
-    <row r="452" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -33300,7 +33289,7 @@
       <c r="AF452" s="2"/>
       <c r="AG452" s="2"/>
     </row>
-    <row r="453" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -33354,7 +33343,7 @@
       <c r="AF453" s="2"/>
       <c r="AG453" s="2"/>
     </row>
-    <row r="454" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -33408,7 +33397,7 @@
       <c r="AF454" s="2"/>
       <c r="AG454" s="2"/>
     </row>
-    <row r="455" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -33462,7 +33451,7 @@
       <c r="AF455" s="2"/>
       <c r="AG455" s="2"/>
     </row>
-    <row r="456" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -33516,7 +33505,7 @@
       <c r="AF456" s="2"/>
       <c r="AG456" s="2"/>
     </row>
-    <row r="457" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -33570,7 +33559,7 @@
       <c r="AF457" s="2"/>
       <c r="AG457" s="2"/>
     </row>
-    <row r="458" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -33624,7 +33613,7 @@
       <c r="AF458" s="2"/>
       <c r="AG458" s="2"/>
     </row>
-    <row r="459" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -33678,7 +33667,7 @@
       <c r="AF459" s="2"/>
       <c r="AG459" s="2"/>
     </row>
-    <row r="460" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -33732,7 +33721,7 @@
       <c r="AF460" s="2"/>
       <c r="AG460" s="2"/>
     </row>
-    <row r="461" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -33786,7 +33775,7 @@
       <c r="AF461" s="2"/>
       <c r="AG461" s="2"/>
     </row>
-    <row r="462" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -33840,7 +33829,7 @@
       <c r="AF462" s="2"/>
       <c r="AG462" s="2"/>
     </row>
-    <row r="463" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -33894,7 +33883,7 @@
       <c r="AF463" s="2"/>
       <c r="AG463" s="2"/>
     </row>
-    <row r="464" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -33948,7 +33937,7 @@
       <c r="AF464" s="2"/>
       <c r="AG464" s="2"/>
     </row>
-    <row r="465" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -34002,7 +33991,7 @@
       <c r="AF465" s="2"/>
       <c r="AG465" s="2"/>
     </row>
-    <row r="466" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -34056,7 +34045,7 @@
       <c r="AF466" s="2"/>
       <c r="AG466" s="2"/>
     </row>
-    <row r="467" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -34110,7 +34099,7 @@
       <c r="AF467" s="2"/>
       <c r="AG467" s="2"/>
     </row>
-    <row r="468" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -34164,7 +34153,7 @@
       <c r="AF468" s="2"/>
       <c r="AG468" s="2"/>
     </row>
-    <row r="469" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -34218,7 +34207,7 @@
       <c r="AF469" s="2"/>
       <c r="AG469" s="2"/>
     </row>
-    <row r="470" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -34272,7 +34261,7 @@
       <c r="AF470" s="2"/>
       <c r="AG470" s="2"/>
     </row>
-    <row r="471" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -34326,7 +34315,7 @@
       <c r="AF471" s="2"/>
       <c r="AG471" s="2"/>
     </row>
-    <row r="472" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -34380,7 +34369,7 @@
       <c r="AF472" s="2"/>
       <c r="AG472" s="2"/>
     </row>
-    <row r="473" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -34434,7 +34423,7 @@
       <c r="AF473" s="2"/>
       <c r="AG473" s="2"/>
     </row>
-    <row r="474" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -34488,7 +34477,7 @@
       <c r="AF474" s="2"/>
       <c r="AG474" s="2"/>
     </row>
-    <row r="475" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -34542,7 +34531,7 @@
       <c r="AF475" s="2"/>
       <c r="AG475" s="2"/>
     </row>
-    <row r="476" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -34596,7 +34585,7 @@
       <c r="AF476" s="2"/>
       <c r="AG476" s="2"/>
     </row>
-    <row r="477" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -34650,7 +34639,7 @@
       <c r="AF477" s="2"/>
       <c r="AG477" s="2"/>
     </row>
-    <row r="478" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -34704,7 +34693,7 @@
       <c r="AF478" s="2"/>
       <c r="AG478" s="2"/>
     </row>
-    <row r="479" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -34758,7 +34747,7 @@
       <c r="AF479" s="2"/>
       <c r="AG479" s="2"/>
     </row>
-    <row r="480" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -34815,7 +34804,7 @@
       <c r="AF480" s="2"/>
       <c r="AG480" s="2"/>
     </row>
-    <row r="481" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -34869,7 +34858,7 @@
       <c r="AF481" s="2"/>
       <c r="AG481" s="2"/>
     </row>
-    <row r="482" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -34923,7 +34912,7 @@
       <c r="AF482" s="2"/>
       <c r="AG482" s="2"/>
     </row>
-    <row r="483" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -34977,7 +34966,7 @@
       <c r="AF483" s="2"/>
       <c r="AG483" s="2"/>
     </row>
-    <row r="484" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -35031,7 +35020,7 @@
       <c r="AF484" s="2"/>
       <c r="AG484" s="2"/>
     </row>
-    <row r="485" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -35085,7 +35074,7 @@
       <c r="AF485" s="2"/>
       <c r="AG485" s="2"/>
     </row>
-    <row r="486" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -35139,7 +35128,7 @@
       <c r="AF486" s="2"/>
       <c r="AG486" s="2"/>
     </row>
-    <row r="487" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -35193,7 +35182,7 @@
       <c r="AF487" s="2"/>
       <c r="AG487" s="2"/>
     </row>
-    <row r="488" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -35247,7 +35236,7 @@
       <c r="AF488" s="2"/>
       <c r="AG488" s="2"/>
     </row>
-    <row r="489" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -35301,7 +35290,7 @@
       <c r="AF489" s="2"/>
       <c r="AG489" s="2"/>
     </row>
-    <row r="490" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -35355,7 +35344,7 @@
       <c r="AF490" s="2"/>
       <c r="AG490" s="2"/>
     </row>
-    <row r="491" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -35409,7 +35398,7 @@
       <c r="AF491" s="2"/>
       <c r="AG491" s="2"/>
     </row>
-    <row r="492" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -35463,7 +35452,7 @@
       <c r="AF492" s="2"/>
       <c r="AG492" s="2"/>
     </row>
-    <row r="493" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -35517,7 +35506,7 @@
       <c r="AF493" s="2"/>
       <c r="AG493" s="2"/>
     </row>
-    <row r="494" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -35571,7 +35560,7 @@
       <c r="AF494" s="2"/>
       <c r="AG494" s="2"/>
     </row>
-    <row r="495" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -35625,7 +35614,7 @@
       <c r="AF495" s="2"/>
       <c r="AG495" s="2"/>
     </row>
-    <row r="496" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -35679,7 +35668,7 @@
       <c r="AF496" s="2"/>
       <c r="AG496" s="2"/>
     </row>
-    <row r="497" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -35733,7 +35722,7 @@
       <c r="AF497" s="2"/>
       <c r="AG497" s="2"/>
     </row>
-    <row r="498" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -35787,7 +35776,7 @@
       <c r="AF498" s="2"/>
       <c r="AG498" s="2"/>
     </row>
-    <row r="499" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -35841,7 +35830,7 @@
       <c r="AF499" s="2"/>
       <c r="AG499" s="2"/>
     </row>
-    <row r="500" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -35895,7 +35884,7 @@
       <c r="AF500" s="2"/>
       <c r="AG500" s="2"/>
     </row>
-    <row r="501" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -35949,7 +35938,7 @@
       <c r="AF501" s="2"/>
       <c r="AG501" s="2"/>
     </row>
-    <row r="502" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -36003,7 +35992,7 @@
       <c r="AF502" s="2"/>
       <c r="AG502" s="2"/>
     </row>
-    <row r="503" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -36057,7 +36046,7 @@
       <c r="AF503" s="2"/>
       <c r="AG503" s="2"/>
     </row>
-    <row r="504" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -36111,7 +36100,7 @@
       <c r="AF504" s="2"/>
       <c r="AG504" s="2"/>
     </row>
-    <row r="505" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -36165,7 +36154,7 @@
       <c r="AF505" s="2"/>
       <c r="AG505" s="2"/>
     </row>
-    <row r="506" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -36219,7 +36208,7 @@
       <c r="AF506" s="2"/>
       <c r="AG506" s="2"/>
     </row>
-    <row r="507" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -36273,7 +36262,7 @@
       <c r="AF507" s="2"/>
       <c r="AG507" s="2"/>
     </row>
-    <row r="508" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -36327,7 +36316,7 @@
       <c r="AF508" s="2"/>
       <c r="AG508" s="2"/>
     </row>
-    <row r="509" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -36381,7 +36370,7 @@
       <c r="AF509" s="2"/>
       <c r="AG509" s="2"/>
     </row>
-    <row r="510" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -36435,7 +36424,7 @@
       <c r="AF510" s="2"/>
       <c r="AG510" s="2"/>
     </row>
-    <row r="511" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -36489,7 +36478,7 @@
       <c r="AF511" s="2"/>
       <c r="AG511" s="2"/>
     </row>
-    <row r="512" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -36543,7 +36532,7 @@
       <c r="AF512" s="2"/>
       <c r="AG512" s="2"/>
     </row>
-    <row r="513" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -36597,7 +36586,7 @@
       <c r="AF513" s="2"/>
       <c r="AG513" s="2"/>
     </row>
-    <row r="514" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -36651,7 +36640,7 @@
       <c r="AF514" s="2"/>
       <c r="AG514" s="2"/>
     </row>
-    <row r="515" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -36705,7 +36694,7 @@
       <c r="AF515" s="2"/>
       <c r="AG515" s="2"/>
     </row>
-    <row r="516" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -36759,7 +36748,7 @@
       <c r="AF516" s="2"/>
       <c r="AG516" s="2"/>
     </row>
-    <row r="517" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -36813,7 +36802,7 @@
       <c r="AF517" s="2"/>
       <c r="AG517" s="2"/>
     </row>
-    <row r="518" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -36867,7 +36856,7 @@
       <c r="AF518" s="2"/>
       <c r="AG518" s="2"/>
     </row>
-    <row r="519" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -36921,7 +36910,7 @@
       <c r="AF519" s="2"/>
       <c r="AG519" s="2"/>
     </row>
-    <row r="520" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -36975,7 +36964,7 @@
       <c r="AF520" s="2"/>
       <c r="AG520" s="2"/>
     </row>
-    <row r="521" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -37029,7 +37018,7 @@
       <c r="AF521" s="2"/>
       <c r="AG521" s="2"/>
     </row>
-    <row r="522" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -37083,7 +37072,7 @@
       <c r="AF522" s="2"/>
       <c r="AG522" s="2"/>
     </row>
-    <row r="523" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -37137,7 +37126,7 @@
       <c r="AF523" s="2"/>
       <c r="AG523" s="2"/>
     </row>
-    <row r="524" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -37191,7 +37180,7 @@
       <c r="AF524" s="2"/>
       <c r="AG524" s="2"/>
     </row>
-    <row r="525" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -37245,7 +37234,7 @@
       <c r="AF525" s="2"/>
       <c r="AG525" s="2"/>
     </row>
-    <row r="526" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -37299,7 +37288,7 @@
       <c r="AF526" s="2"/>
       <c r="AG526" s="2"/>
     </row>
-    <row r="527" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -37353,7 +37342,7 @@
       <c r="AF527" s="2"/>
       <c r="AG527" s="2"/>
     </row>
-    <row r="528" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -37407,7 +37396,7 @@
       <c r="AF528" s="2"/>
       <c r="AG528" s="2"/>
     </row>
-    <row r="529" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -37461,7 +37450,7 @@
       <c r="AF529" s="2"/>
       <c r="AG529" s="2"/>
     </row>
-    <row r="530" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -37515,7 +37504,7 @@
       <c r="AF530" s="2"/>
       <c r="AG530" s="2"/>
     </row>
-    <row r="531" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -37569,7 +37558,7 @@
       <c r="AF531" s="2"/>
       <c r="AG531" s="2"/>
     </row>
-    <row r="532" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -37623,7 +37612,7 @@
       <c r="AF532" s="2"/>
       <c r="AG532" s="2"/>
     </row>
-    <row r="533" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -37677,7 +37666,7 @@
       <c r="AF533" s="2"/>
       <c r="AG533" s="2"/>
     </row>
-    <row r="534" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -37731,7 +37720,7 @@
       <c r="AF534" s="2"/>
       <c r="AG534" s="2"/>
     </row>
-    <row r="535" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -37785,7 +37774,7 @@
       <c r="AF535" s="2"/>
       <c r="AG535" s="2"/>
     </row>
-    <row r="536" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -37839,7 +37828,7 @@
       <c r="AF536" s="2"/>
       <c r="AG536" s="2"/>
     </row>
-    <row r="537" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -37893,7 +37882,7 @@
       <c r="AF537" s="2"/>
       <c r="AG537" s="2"/>
     </row>
-    <row r="538" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -37947,7 +37936,7 @@
       <c r="AF538" s="2"/>
       <c r="AG538" s="2"/>
     </row>
-    <row r="539" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -38001,7 +37990,7 @@
       <c r="AF539" s="2"/>
       <c r="AG539" s="2"/>
     </row>
-    <row r="540" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -38055,7 +38044,7 @@
       <c r="AF540" s="2"/>
       <c r="AG540" s="2"/>
     </row>
-    <row r="541" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -38109,7 +38098,7 @@
       <c r="AF541" s="2"/>
       <c r="AG541" s="2"/>
     </row>
-    <row r="542" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -38163,7 +38152,7 @@
       <c r="AF542" s="2"/>
       <c r="AG542" s="2"/>
     </row>
-    <row r="543" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -38217,7 +38206,7 @@
       <c r="AF543" s="2"/>
       <c r="AG543" s="2"/>
     </row>
-    <row r="544" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -38271,7 +38260,7 @@
       <c r="AF544" s="2"/>
       <c r="AG544" s="2"/>
     </row>
-    <row r="545" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -38325,7 +38314,7 @@
       <c r="AF545" s="2"/>
       <c r="AG545" s="2"/>
     </row>
-    <row r="546" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -38379,7 +38368,7 @@
       <c r="AF546" s="2"/>
       <c r="AG546" s="2"/>
     </row>
-    <row r="547" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -38433,7 +38422,7 @@
       <c r="AF547" s="2"/>
       <c r="AG547" s="2"/>
     </row>
-    <row r="548" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -38487,7 +38476,7 @@
       <c r="AF548" s="2"/>
       <c r="AG548" s="2"/>
     </row>
-    <row r="549" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -38541,7 +38530,7 @@
       <c r="AF549" s="2"/>
       <c r="AG549" s="2"/>
     </row>
-    <row r="550" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -38595,7 +38584,7 @@
       <c r="AF550" s="2"/>
       <c r="AG550" s="2"/>
     </row>
-    <row r="551" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -38649,7 +38638,7 @@
       <c r="AF551" s="2"/>
       <c r="AG551" s="2"/>
     </row>
-    <row r="552" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -38703,7 +38692,7 @@
       <c r="AF552" s="2"/>
       <c r="AG552" s="2"/>
     </row>
-    <row r="553" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -38757,7 +38746,7 @@
       <c r="AF553" s="2"/>
       <c r="AG553" s="2"/>
     </row>
-    <row r="554" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -38811,7 +38800,7 @@
       <c r="AF554" s="2"/>
       <c r="AG554" s="2"/>
     </row>
-    <row r="555" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -38865,7 +38854,7 @@
       <c r="AF555" s="2"/>
       <c r="AG555" s="2"/>
     </row>
-    <row r="556" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -38919,7 +38908,7 @@
       <c r="AF556" s="2"/>
       <c r="AG556" s="2"/>
     </row>
-    <row r="557" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -38973,7 +38962,7 @@
       <c r="AF557" s="2"/>
       <c r="AG557" s="2"/>
     </row>
-    <row r="558" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -39027,7 +39016,7 @@
       <c r="AF558" s="2"/>
       <c r="AG558" s="2"/>
     </row>
-    <row r="559" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -39081,7 +39070,7 @@
       <c r="AF559" s="2"/>
       <c r="AG559" s="2"/>
     </row>
-    <row r="560" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -39135,7 +39124,7 @@
       <c r="AF560" s="2"/>
       <c r="AG560" s="2"/>
     </row>
-    <row r="561" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -39189,7 +39178,7 @@
       <c r="AF561" s="2"/>
       <c r="AG561" s="2"/>
     </row>
-    <row r="562" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -39243,7 +39232,7 @@
       <c r="AF562" s="2"/>
       <c r="AG562" s="2"/>
     </row>
-    <row r="563" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -39297,7 +39286,7 @@
       <c r="AF563" s="2"/>
       <c r="AG563" s="2"/>
     </row>
-    <row r="564" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -39351,7 +39340,7 @@
       <c r="AF564" s="2"/>
       <c r="AG564" s="2"/>
     </row>
-    <row r="565" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -39405,7 +39394,7 @@
       <c r="AF565" s="2"/>
       <c r="AG565" s="2"/>
     </row>
-    <row r="566" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -39459,7 +39448,7 @@
       <c r="AF566" s="2"/>
       <c r="AG566" s="2"/>
     </row>
-    <row r="567" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -39513,7 +39502,7 @@
       <c r="AF567" s="2"/>
       <c r="AG567" s="2"/>
     </row>
-    <row r="568" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -39567,7 +39556,7 @@
       <c r="AF568" s="2"/>
       <c r="AG568" s="2"/>
     </row>
-    <row r="569" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -39621,7 +39610,7 @@
       <c r="AF569" s="2"/>
       <c r="AG569" s="2"/>
     </row>
-    <row r="570" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -39675,7 +39664,7 @@
       <c r="AF570" s="2"/>
       <c r="AG570" s="2"/>
     </row>
-    <row r="571" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -39729,7 +39718,7 @@
       <c r="AF571" s="2"/>
       <c r="AG571" s="2"/>
     </row>
-    <row r="572" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -39783,7 +39772,7 @@
       <c r="AF572" s="2"/>
       <c r="AG572" s="2"/>
     </row>
-    <row r="573" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -39837,7 +39826,7 @@
       <c r="AF573" s="2"/>
       <c r="AG573" s="2"/>
     </row>
-    <row r="574" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -39894,7 +39883,7 @@
       <c r="AF574" s="2"/>
       <c r="AG574" s="2"/>
     </row>
-    <row r="575" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -39948,7 +39937,7 @@
       <c r="AF575" s="2"/>
       <c r="AG575" s="2"/>
     </row>
-    <row r="576" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -40002,7 +39991,7 @@
       <c r="AF576" s="2"/>
       <c r="AG576" s="2"/>
     </row>
-    <row r="577" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -40056,7 +40045,7 @@
       <c r="AF577" s="2"/>
       <c r="AG577" s="2"/>
     </row>
-    <row r="578" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -40110,7 +40099,7 @@
       <c r="AF578" s="2"/>
       <c r="AG578" s="2"/>
     </row>
-    <row r="579" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -40164,7 +40153,7 @@
       <c r="AF579" s="2"/>
       <c r="AG579" s="2"/>
     </row>
-    <row r="580" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -40218,7 +40207,7 @@
       <c r="AF580" s="2"/>
       <c r="AG580" s="2"/>
     </row>
-    <row r="581" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -40272,7 +40261,7 @@
       <c r="AF581" s="2"/>
       <c r="AG581" s="2"/>
     </row>
-    <row r="582" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -40326,7 +40315,7 @@
       <c r="AF582" s="2"/>
       <c r="AG582" s="2"/>
     </row>
-    <row r="583" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -40380,7 +40369,7 @@
       <c r="AF583" s="2"/>
       <c r="AG583" s="2"/>
     </row>
-    <row r="584" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -40434,7 +40423,7 @@
       <c r="AF584" s="2"/>
       <c r="AG584" s="2"/>
     </row>
-    <row r="585" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -40488,7 +40477,7 @@
       <c r="AF585" s="2"/>
       <c r="AG585" s="2"/>
     </row>
-    <row r="586" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -40542,7 +40531,7 @@
       <c r="AF586" s="2"/>
       <c r="AG586" s="2"/>
     </row>
-    <row r="587" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -40596,7 +40585,7 @@
       <c r="AF587" s="2"/>
       <c r="AG587" s="2"/>
     </row>
-    <row r="588" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -40650,7 +40639,7 @@
       <c r="AF588" s="2"/>
       <c r="AG588" s="2"/>
     </row>
-    <row r="589" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -40704,7 +40693,7 @@
       <c r="AF589" s="2"/>
       <c r="AG589" s="2"/>
     </row>
-    <row r="590" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -40758,7 +40747,7 @@
       <c r="AF590" s="2"/>
       <c r="AG590" s="2"/>
     </row>
-    <row r="591" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -40812,7 +40801,7 @@
       <c r="AF591" s="2"/>
       <c r="AG591" s="2"/>
     </row>
-    <row r="592" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -40866,7 +40855,7 @@
       <c r="AF592" s="2"/>
       <c r="AG592" s="2"/>
     </row>
-    <row r="593" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -40920,7 +40909,7 @@
       <c r="AF593" s="2"/>
       <c r="AG593" s="2"/>
     </row>
-    <row r="594" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -40974,7 +40963,7 @@
       <c r="AF594" s="2"/>
       <c r="AG594" s="2"/>
     </row>
-    <row r="595" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -41028,7 +41017,7 @@
       <c r="AF595" s="2"/>
       <c r="AG595" s="2"/>
     </row>
-    <row r="596" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -41082,7 +41071,7 @@
       <c r="AF596" s="2"/>
       <c r="AG596" s="2"/>
     </row>
-    <row r="597" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -41136,7 +41125,7 @@
       <c r="AF597" s="2"/>
       <c r="AG597" s="2"/>
     </row>
-    <row r="598" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -41190,7 +41179,7 @@
       <c r="AF598" s="2"/>
       <c r="AG598" s="2"/>
     </row>
-    <row r="599" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -41244,7 +41233,7 @@
       <c r="AF599" s="2"/>
       <c r="AG599" s="2"/>
     </row>
-    <row r="600" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -41298,7 +41287,7 @@
       <c r="AF600" s="2"/>
       <c r="AG600" s="2"/>
     </row>
-    <row r="601" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -41352,7 +41341,7 @@
       <c r="AF601" s="2"/>
       <c r="AG601" s="2"/>
     </row>
-    <row r="602" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -41406,7 +41395,7 @@
       <c r="AF602" s="2"/>
       <c r="AG602" s="2"/>
     </row>
-    <row r="603" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -41460,7 +41449,7 @@
       <c r="AF603" s="2"/>
       <c r="AG603" s="2"/>
     </row>
-    <row r="604" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -41514,7 +41503,7 @@
       <c r="AF604" s="2"/>
       <c r="AG604" s="2"/>
     </row>
-    <row r="605" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -41568,7 +41557,7 @@
       <c r="AF605" s="2"/>
       <c r="AG605" s="2"/>
     </row>
-    <row r="606" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -41622,7 +41611,7 @@
       <c r="AF606" s="2"/>
       <c r="AG606" s="2"/>
     </row>
-    <row r="607" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -41676,7 +41665,7 @@
       <c r="AF607" s="2"/>
       <c r="AG607" s="2"/>
     </row>
-    <row r="608" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -41730,7 +41719,7 @@
       <c r="AF608" s="2"/>
       <c r="AG608" s="2"/>
     </row>
-    <row r="609" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -41784,7 +41773,7 @@
       <c r="AF609" s="2"/>
       <c r="AG609" s="2"/>
     </row>
-    <row r="610" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -41838,7 +41827,7 @@
       <c r="AF610" s="2"/>
       <c r="AG610" s="2"/>
     </row>
-    <row r="611" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -41892,7 +41881,7 @@
       <c r="AF611" s="2"/>
       <c r="AG611" s="2"/>
     </row>
-    <row r="612" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -41946,7 +41935,7 @@
       <c r="AF612" s="2"/>
       <c r="AG612" s="2"/>
     </row>
-    <row r="613" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -42000,7 +41989,7 @@
       <c r="AF613" s="2"/>
       <c r="AG613" s="2"/>
     </row>
-    <row r="614" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -42054,7 +42043,7 @@
       <c r="AF614" s="2"/>
       <c r="AG614" s="2"/>
     </row>
-    <row r="615" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -42108,7 +42097,7 @@
       <c r="AF615" s="2"/>
       <c r="AG615" s="2"/>
     </row>
-    <row r="616" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -42162,7 +42151,7 @@
       <c r="AF616" s="2"/>
       <c r="AG616" s="2"/>
     </row>
-    <row r="617" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -42216,7 +42205,7 @@
       <c r="AF617" s="2"/>
       <c r="AG617" s="2"/>
     </row>
-    <row r="618" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -42270,7 +42259,7 @@
       <c r="AF618" s="2"/>
       <c r="AG618" s="2"/>
     </row>
-    <row r="619" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -42324,7 +42313,7 @@
       <c r="AF619" s="2"/>
       <c r="AG619" s="2"/>
     </row>
-    <row r="620" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -42378,7 +42367,7 @@
       <c r="AF620" s="2"/>
       <c r="AG620" s="2"/>
     </row>
-    <row r="621" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -42432,7 +42421,7 @@
       <c r="AF621" s="2"/>
       <c r="AG621" s="2"/>
     </row>
-    <row r="622" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -42486,7 +42475,7 @@
       <c r="AF622" s="2"/>
       <c r="AG622" s="2"/>
     </row>
-    <row r="623" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -42540,7 +42529,7 @@
       <c r="AF623" s="2"/>
       <c r="AG623" s="2"/>
     </row>
-    <row r="624" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -42597,7 +42586,7 @@
       <c r="AF624" s="2"/>
       <c r="AG624" s="2"/>
     </row>
-    <row r="625" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -42651,7 +42640,7 @@
       <c r="AF625" s="2"/>
       <c r="AG625" s="2"/>
     </row>
-    <row r="626" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -42705,7 +42694,7 @@
       <c r="AF626" s="2"/>
       <c r="AG626" s="2"/>
     </row>
-    <row r="627" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -42759,7 +42748,7 @@
       <c r="AF627" s="2"/>
       <c r="AG627" s="2"/>
     </row>
-    <row r="628" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -42813,7 +42802,7 @@
       <c r="AF628" s="2"/>
       <c r="AG628" s="2"/>
     </row>
-    <row r="629" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -42867,7 +42856,7 @@
       <c r="AF629" s="2"/>
       <c r="AG629" s="2"/>
     </row>
-    <row r="630" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -42921,7 +42910,7 @@
       <c r="AF630" s="2"/>
       <c r="AG630" s="2"/>
     </row>
-    <row r="631" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -42975,7 +42964,7 @@
       <c r="AF631" s="2"/>
       <c r="AG631" s="2"/>
     </row>
-    <row r="632" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -43029,7 +43018,7 @@
       <c r="AF632" s="2"/>
       <c r="AG632" s="2"/>
     </row>
-    <row r="633" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -43083,7 +43072,7 @@
       <c r="AF633" s="2"/>
       <c r="AG633" s="2"/>
     </row>
-    <row r="634" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -43137,7 +43126,7 @@
       <c r="AF634" s="2"/>
       <c r="AG634" s="2"/>
     </row>
-    <row r="635" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -43191,7 +43180,7 @@
       <c r="AF635" s="2"/>
       <c r="AG635" s="2"/>
     </row>
-    <row r="636" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -43245,7 +43234,7 @@
       <c r="AF636" s="2"/>
       <c r="AG636" s="2"/>
     </row>
-    <row r="637" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -43299,7 +43288,7 @@
       <c r="AF637" s="2"/>
       <c r="AG637" s="2"/>
     </row>
-    <row r="638" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -43353,7 +43342,7 @@
       <c r="AF638" s="2"/>
       <c r="AG638" s="2"/>
     </row>
-    <row r="639" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>638</v>
       </c>
@@ -43407,7 +43396,7 @@
       <c r="AF639" s="2"/>
       <c r="AG639" s="2"/>
     </row>
-    <row r="640" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>639</v>
       </c>
@@ -43461,7 +43450,7 @@
       <c r="AF640" s="2"/>
       <c r="AG640" s="2"/>
     </row>
-    <row r="641" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>640</v>
       </c>
@@ -43515,7 +43504,7 @@
       <c r="AF641" s="2"/>
       <c r="AG641" s="2"/>
     </row>
-    <row r="642" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>641</v>
       </c>
@@ -43569,7 +43558,7 @@
       <c r="AF642" s="2"/>
       <c r="AG642" s="2"/>
     </row>
-    <row r="643" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>642</v>
       </c>
@@ -43623,7 +43612,7 @@
       <c r="AF643" s="2"/>
       <c r="AG643" s="2"/>
     </row>
-    <row r="644" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>643</v>
       </c>
@@ -43677,7 +43666,7 @@
       <c r="AF644" s="2"/>
       <c r="AG644" s="2"/>
     </row>
-    <row r="645" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>644</v>
       </c>
@@ -43731,7 +43720,7 @@
       <c r="AF645" s="2"/>
       <c r="AG645" s="2"/>
     </row>
-    <row r="646" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>645</v>
       </c>
@@ -43785,7 +43774,7 @@
       <c r="AF646" s="2"/>
       <c r="AG646" s="2"/>
     </row>
-    <row r="647" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>646</v>
       </c>
@@ -43839,7 +43828,7 @@
       <c r="AF647" s="2"/>
       <c r="AG647" s="2"/>
     </row>
-    <row r="648" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>647</v>
       </c>
@@ -43893,7 +43882,7 @@
       <c r="AF648" s="2"/>
       <c r="AG648" s="2"/>
     </row>
-    <row r="649" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>648</v>
       </c>
@@ -43947,7 +43936,7 @@
       <c r="AF649" s="2"/>
       <c r="AG649" s="2"/>
     </row>
-    <row r="650" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>649</v>
       </c>
@@ -44001,7 +43990,7 @@
       <c r="AF650" s="2"/>
       <c r="AG650" s="2"/>
     </row>
-    <row r="651" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>650</v>
       </c>
@@ -44055,7 +44044,7 @@
       <c r="AF651" s="2"/>
       <c r="AG651" s="2"/>
     </row>
-    <row r="652" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>651</v>
       </c>
@@ -44109,7 +44098,7 @@
       <c r="AF652" s="2"/>
       <c r="AG652" s="2"/>
     </row>
-    <row r="653" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>652</v>
       </c>
@@ -44163,7 +44152,7 @@
       <c r="AF653" s="2"/>
       <c r="AG653" s="2"/>
     </row>
-    <row r="654" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>653</v>
       </c>
@@ -44217,7 +44206,7 @@
       <c r="AF654" s="2"/>
       <c r="AG654" s="2"/>
     </row>
-    <row r="655" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>654</v>
       </c>
@@ -44271,7 +44260,7 @@
       <c r="AF655" s="2"/>
       <c r="AG655" s="2"/>
     </row>
-    <row r="656" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>655</v>
       </c>
@@ -44325,7 +44314,7 @@
       <c r="AF656" s="2"/>
       <c r="AG656" s="2"/>
     </row>
-    <row r="657" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>656</v>
       </c>
@@ -44379,7 +44368,7 @@
       <c r="AF657" s="2"/>
       <c r="AG657" s="2"/>
     </row>
-    <row r="658" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>657</v>
       </c>
@@ -44433,7 +44422,7 @@
       <c r="AF658" s="2"/>
       <c r="AG658" s="2"/>
     </row>
-    <row r="659" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>658</v>
       </c>
@@ -44487,7 +44476,7 @@
       <c r="AF659" s="2"/>
       <c r="AG659" s="2"/>
     </row>
-    <row r="660" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>659</v>
       </c>
@@ -44541,7 +44530,7 @@
       <c r="AF660" s="2"/>
       <c r="AG660" s="2"/>
     </row>
-    <row r="661" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>660</v>
       </c>
@@ -44595,7 +44584,7 @@
       <c r="AF661" s="2"/>
       <c r="AG661" s="2"/>
     </row>
-    <row r="662" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>661</v>
       </c>
@@ -44649,7 +44638,7 @@
       <c r="AF662" s="2"/>
       <c r="AG662" s="2"/>
     </row>
-    <row r="663" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>662</v>
       </c>
@@ -44703,7 +44692,7 @@
       <c r="AF663" s="2"/>
       <c r="AG663" s="2"/>
     </row>
-    <row r="664" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>663</v>
       </c>
@@ -44757,7 +44746,7 @@
       <c r="AF664" s="2"/>
       <c r="AG664" s="2"/>
     </row>
-    <row r="665" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>664</v>
       </c>
@@ -44811,7 +44800,7 @@
       <c r="AF665" s="2"/>
       <c r="AG665" s="2"/>
     </row>
-    <row r="666" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>665</v>
       </c>
@@ -44865,7 +44854,7 @@
       <c r="AF666" s="2"/>
       <c r="AG666" s="2"/>
     </row>
-    <row r="667" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>666</v>
       </c>
@@ -44919,7 +44908,7 @@
       <c r="AF667" s="2"/>
       <c r="AG667" s="2"/>
     </row>
-    <row r="668" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>667</v>
       </c>
@@ -44973,7 +44962,7 @@
       <c r="AF668" s="2"/>
       <c r="AG668" s="2"/>
     </row>
-    <row r="669" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>668</v>
       </c>
@@ -45027,7 +45016,7 @@
       <c r="AF669" s="2"/>
       <c r="AG669" s="2"/>
     </row>
-    <row r="670" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>669</v>
       </c>
@@ -45084,7 +45073,7 @@
       <c r="AF670" s="2"/>
       <c r="AG670" s="2"/>
     </row>
-    <row r="671" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>670</v>
       </c>
@@ -45138,7 +45127,7 @@
       <c r="AF671" s="2"/>
       <c r="AG671" s="2"/>
     </row>
-    <row r="672" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>671</v>
       </c>
@@ -45192,7 +45181,7 @@
       <c r="AF672" s="2"/>
       <c r="AG672" s="2"/>
     </row>
-    <row r="673" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>672</v>
       </c>
@@ -45246,7 +45235,7 @@
       <c r="AF673" s="2"/>
       <c r="AG673" s="2"/>
     </row>
-    <row r="674" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>673</v>
       </c>
@@ -45300,7 +45289,7 @@
       <c r="AF674" s="2"/>
       <c r="AG674" s="2"/>
     </row>
-    <row r="675" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>674</v>
       </c>
@@ -45354,7 +45343,7 @@
       <c r="AF675" s="2"/>
       <c r="AG675" s="2"/>
     </row>
-    <row r="676" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>675</v>
       </c>
@@ -45408,7 +45397,7 @@
       <c r="AF676" s="2"/>
       <c r="AG676" s="2"/>
     </row>
-    <row r="677" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>676</v>
       </c>
@@ -45462,7 +45451,7 @@
       <c r="AF677" s="2"/>
       <c r="AG677" s="2"/>
     </row>
-    <row r="678" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>677</v>
       </c>
@@ -45516,7 +45505,7 @@
       <c r="AF678" s="2"/>
       <c r="AG678" s="2"/>
     </row>
-    <row r="679" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>678</v>
       </c>
@@ -45570,7 +45559,7 @@
       <c r="AF679" s="2"/>
       <c r="AG679" s="2"/>
     </row>
-    <row r="680" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>679</v>
       </c>
@@ -45624,7 +45613,7 @@
       <c r="AF680" s="2"/>
       <c r="AG680" s="2"/>
     </row>
-    <row r="681" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>680</v>
       </c>
@@ -45678,7 +45667,7 @@
       <c r="AF681" s="2"/>
       <c r="AG681" s="2"/>
     </row>
-    <row r="682" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>681</v>
       </c>
@@ -45732,7 +45721,7 @@
       <c r="AF682" s="2"/>
       <c r="AG682" s="2"/>
     </row>
-    <row r="683" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>682</v>
       </c>
@@ -45786,7 +45775,7 @@
       <c r="AF683" s="2"/>
       <c r="AG683" s="2"/>
     </row>
-    <row r="684" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>683</v>
       </c>
@@ -45840,7 +45829,7 @@
       <c r="AF684" s="2"/>
       <c r="AG684" s="2"/>
     </row>
-    <row r="685" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>684</v>
       </c>
@@ -45894,7 +45883,7 @@
       <c r="AF685" s="2"/>
       <c r="AG685" s="2"/>
     </row>
-    <row r="686" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>685</v>
       </c>
@@ -45948,7 +45937,7 @@
       <c r="AF686" s="2"/>
       <c r="AG686" s="2"/>
     </row>
-    <row r="687" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -46002,7 +45991,7 @@
       <c r="AF687" s="2"/>
       <c r="AG687" s="2"/>
     </row>
-    <row r="688" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>687</v>
       </c>
@@ -46056,7 +46045,7 @@
       <c r="AF688" s="2"/>
       <c r="AG688" s="2"/>
     </row>
-    <row r="689" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>688</v>
       </c>
@@ -46113,7 +46102,7 @@
       <c r="AF689" s="2"/>
       <c r="AG689" s="2"/>
     </row>
-    <row r="690" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>689</v>
       </c>
@@ -46170,7 +46159,7 @@
       <c r="AF690" s="2"/>
       <c r="AG690" s="2"/>
     </row>
-    <row r="691" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>690</v>
       </c>
@@ -46224,7 +46213,7 @@
       <c r="AF691" s="2"/>
       <c r="AG691" s="2"/>
     </row>
-    <row r="692" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>691</v>
       </c>
@@ -46278,7 +46267,7 @@
       <c r="AF692" s="2"/>
       <c r="AG692" s="2"/>
     </row>
-    <row r="693" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>692</v>
       </c>
@@ -46332,7 +46321,7 @@
       <c r="AF693" s="2"/>
       <c r="AG693" s="2"/>
     </row>
-    <row r="694" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>693</v>
       </c>
@@ -46386,7 +46375,7 @@
       <c r="AF694" s="2"/>
       <c r="AG694" s="2"/>
     </row>
-    <row r="695" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>694</v>
       </c>
@@ -46440,7 +46429,7 @@
       <c r="AF695" s="2"/>
       <c r="AG695" s="2"/>
     </row>
-    <row r="696" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>695</v>
       </c>
@@ -46494,7 +46483,7 @@
       <c r="AF696" s="2"/>
       <c r="AG696" s="2"/>
     </row>
-    <row r="697" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>696</v>
       </c>
@@ -46548,7 +46537,7 @@
       <c r="AF697" s="2"/>
       <c r="AG697" s="2"/>
     </row>
-    <row r="698" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>697</v>
       </c>
@@ -46602,7 +46591,7 @@
       <c r="AF698" s="2"/>
       <c r="AG698" s="2"/>
     </row>
-    <row r="699" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>698</v>
       </c>
@@ -46656,7 +46645,7 @@
       <c r="AF699" s="2"/>
       <c r="AG699" s="2"/>
     </row>
-    <row r="700" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>699</v>
       </c>
@@ -46710,7 +46699,7 @@
       <c r="AF700" s="2"/>
       <c r="AG700" s="2"/>
     </row>
-    <row r="701" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>700</v>
       </c>
@@ -46764,7 +46753,7 @@
       <c r="AF701" s="2"/>
       <c r="AG701" s="2"/>
     </row>
-    <row r="702" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>701</v>
       </c>
@@ -46818,7 +46807,7 @@
       <c r="AF702" s="2"/>
       <c r="AG702" s="2"/>
     </row>
-    <row r="703" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>702</v>
       </c>
@@ -46872,7 +46861,7 @@
       <c r="AF703" s="2"/>
       <c r="AG703" s="2"/>
     </row>
-    <row r="704" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>703</v>
       </c>
@@ -46926,7 +46915,7 @@
       <c r="AF704" s="2"/>
       <c r="AG704" s="2"/>
     </row>
-    <row r="705" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>704</v>
       </c>
@@ -46980,7 +46969,7 @@
       <c r="AF705" s="2"/>
       <c r="AG705" s="2"/>
     </row>
-    <row r="706" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>705</v>
       </c>
@@ -47034,7 +47023,7 @@
       <c r="AF706" s="2"/>
       <c r="AG706" s="2"/>
     </row>
-    <row r="707" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>706</v>
       </c>
@@ -47088,7 +47077,7 @@
       <c r="AF707" s="2"/>
       <c r="AG707" s="2"/>
     </row>
-    <row r="708" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>707</v>
       </c>
@@ -47145,7 +47134,7 @@
       <c r="AF708" s="2"/>
       <c r="AG708" s="2"/>
     </row>
-    <row r="709" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>708</v>
       </c>
@@ -47202,7 +47191,7 @@
       <c r="AF709" s="2"/>
       <c r="AG709" s="2"/>
     </row>
-    <row r="710" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>709</v>
       </c>
@@ -47256,7 +47245,7 @@
       <c r="AF710" s="2"/>
       <c r="AG710" s="2"/>
     </row>
-    <row r="711" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>710</v>
       </c>
@@ -47310,7 +47299,7 @@
       <c r="AF711" s="2"/>
       <c r="AG711" s="2"/>
     </row>
-    <row r="712" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>711</v>
       </c>
@@ -47364,7 +47353,7 @@
       <c r="AF712" s="2"/>
       <c r="AG712" s="2"/>
     </row>
-    <row r="713" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>712</v>
       </c>
@@ -47418,7 +47407,7 @@
       <c r="AF713" s="2"/>
       <c r="AG713" s="2"/>
     </row>
-    <row r="714" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>713</v>
       </c>
@@ -47472,7 +47461,7 @@
       <c r="AF714" s="2"/>
       <c r="AG714" s="2"/>
     </row>
-    <row r="715" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>714</v>
       </c>
@@ -47526,7 +47515,7 @@
       <c r="AF715" s="2"/>
       <c r="AG715" s="2"/>
     </row>
-    <row r="716" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>715</v>
       </c>
@@ -47580,7 +47569,7 @@
       <c r="AF716" s="2"/>
       <c r="AG716" s="2"/>
     </row>
-    <row r="717" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>716</v>
       </c>
@@ -47634,7 +47623,7 @@
       <c r="AF717" s="2"/>
       <c r="AG717" s="2"/>
     </row>
-    <row r="718" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>717</v>
       </c>
@@ -47688,7 +47677,7 @@
       <c r="AF718" s="2"/>
       <c r="AG718" s="2"/>
     </row>
-    <row r="719" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>718</v>
       </c>
@@ -47742,7 +47731,7 @@
       <c r="AF719" s="2"/>
       <c r="AG719" s="2"/>
     </row>
-    <row r="720" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>719</v>
       </c>
@@ -47796,7 +47785,7 @@
       <c r="AF720" s="2"/>
       <c r="AG720" s="2"/>
     </row>
-    <row r="721" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>720</v>
       </c>
@@ -47850,7 +47839,7 @@
       <c r="AF721" s="2"/>
       <c r="AG721" s="2"/>
     </row>
-    <row r="722" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>721</v>
       </c>
@@ -47907,7 +47896,7 @@
       <c r="AF722" s="2"/>
       <c r="AG722" s="2"/>
     </row>
-    <row r="723" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>722</v>
       </c>
@@ -47961,7 +47950,7 @@
       <c r="AF723" s="2"/>
       <c r="AG723" s="2"/>
     </row>
-    <row r="724" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>723</v>
       </c>
@@ -48015,7 +48004,7 @@
       <c r="AF724" s="2"/>
       <c r="AG724" s="2"/>
     </row>
-    <row r="725" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>724</v>
       </c>
@@ -48069,7 +48058,7 @@
       <c r="AF725" s="2"/>
       <c r="AG725" s="2"/>
     </row>
-    <row r="726" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>725</v>
       </c>
@@ -48123,7 +48112,7 @@
       <c r="AF726" s="2"/>
       <c r="AG726" s="2"/>
     </row>
-    <row r="727" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>726</v>
       </c>
@@ -48177,7 +48166,7 @@
       <c r="AF727" s="2"/>
       <c r="AG727" s="2"/>
     </row>
-    <row r="728" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>727</v>
       </c>
@@ -48231,7 +48220,7 @@
       <c r="AF728" s="2"/>
       <c r="AG728" s="2"/>
     </row>
-    <row r="729" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>728</v>
       </c>
@@ -48285,7 +48274,7 @@
       <c r="AF729" s="2"/>
       <c r="AG729" s="2"/>
     </row>
-    <row r="730" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>729</v>
       </c>
@@ -48339,7 +48328,7 @@
       <c r="AF730" s="2"/>
       <c r="AG730" s="2"/>
     </row>
-    <row r="731" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>730</v>
       </c>
@@ -48396,7 +48385,7 @@
       <c r="AF731" s="2"/>
       <c r="AG731" s="2"/>
     </row>
-    <row r="732" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>731</v>
       </c>
@@ -48453,7 +48442,7 @@
       <c r="AF732" s="2"/>
       <c r="AG732" s="2"/>
     </row>
-    <row r="733" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>732</v>
       </c>
@@ -48507,7 +48496,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="734" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>733</v>
       </c>
@@ -48558,7 +48547,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="735" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>734</v>
       </c>
@@ -48609,7 +48598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="736" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>735</v>
       </c>
@@ -48660,7 +48649,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="737" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>736</v>
       </c>
@@ -48711,7 +48700,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="738" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -48762,7 +48751,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="739" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>738</v>
       </c>
@@ -48813,7 +48802,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="740" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>739</v>
       </c>
@@ -48864,7 +48853,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="741" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>740</v>
       </c>
@@ -48915,7 +48904,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="742" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>741</v>
       </c>
@@ -48966,7 +48955,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="743" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>742</v>
       </c>
@@ -49017,7 +49006,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="744" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>743</v>
       </c>
@@ -49068,7 +49057,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="745" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>744</v>
       </c>
@@ -49119,7 +49108,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="746" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>745</v>
       </c>
@@ -49170,7 +49159,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="747" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>746</v>
       </c>
@@ -49221,7 +49210,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="748" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>747</v>
       </c>
@@ -49272,7 +49261,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="749" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>748</v>
       </c>
@@ -49323,7 +49312,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="750" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>749</v>
       </c>
@@ -49374,7 +49363,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="751" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>750</v>
       </c>
@@ -49425,7 +49414,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="752" spans="1:30" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:30" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>751</v>
       </c>
@@ -49476,7 +49465,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="753" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>752</v>
       </c>
@@ -49527,7 +49516,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="754" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>753</v>
       </c>
@@ -49578,7 +49567,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="755" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>754</v>
       </c>
@@ -49629,7 +49618,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="756" spans="1:33" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:33" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>755</v>
       </c>
@@ -49680,7 +49669,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="757" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>756</v>
       </c>
@@ -49734,7 +49723,7 @@
       <c r="AF757" s="2"/>
       <c r="AG757" s="2"/>
     </row>
-    <row r="758" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>757</v>
       </c>
@@ -49788,7 +49777,7 @@
       <c r="AF758" s="2"/>
       <c r="AG758" s="2"/>
     </row>
-    <row r="759" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>758</v>
       </c>
@@ -49842,7 +49831,7 @@
       <c r="AF759" s="2"/>
       <c r="AG759" s="2"/>
     </row>
-    <row r="760" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>759</v>
       </c>
@@ -49896,7 +49885,7 @@
       <c r="AF760" s="2"/>
       <c r="AG760" s="2"/>
     </row>
-    <row r="761" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>760</v>
       </c>
@@ -49950,7 +49939,7 @@
       <c r="AF761" s="2"/>
       <c r="AG761" s="2"/>
     </row>
-    <row r="762" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>761</v>
       </c>
@@ -50004,7 +49993,7 @@
       <c r="AF762" s="2"/>
       <c r="AG762" s="2"/>
     </row>
-    <row r="763" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>762</v>
       </c>
@@ -50058,7 +50047,7 @@
       <c r="AF763" s="2"/>
       <c r="AG763" s="2"/>
     </row>
-    <row r="764" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>763</v>
       </c>
@@ -50112,7 +50101,7 @@
       <c r="AF764" s="2"/>
       <c r="AG764" s="2"/>
     </row>
-    <row r="765" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -50166,7 +50155,7 @@
       <c r="AF765" s="2"/>
       <c r="AG765" s="2"/>
     </row>
-    <row r="766" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -50220,7 +50209,7 @@
       <c r="AF766" s="2"/>
       <c r="AG766" s="2"/>
     </row>
-    <row r="767" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -50274,7 +50263,7 @@
       <c r="AF767" s="2"/>
       <c r="AG767" s="2"/>
     </row>
-    <row r="768" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -50328,7 +50317,7 @@
       <c r="AF768" s="2"/>
       <c r="AG768" s="2"/>
     </row>
-    <row r="769" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -50382,7 +50371,7 @@
       <c r="AF769" s="2"/>
       <c r="AG769" s="2"/>
     </row>
-    <row r="770" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>769</v>
       </c>
@@ -50436,7 +50425,7 @@
       <c r="AF770" s="2"/>
       <c r="AG770" s="2"/>
     </row>
-    <row r="771" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -50490,7 +50479,7 @@
       <c r="AF771" s="2"/>
       <c r="AG771" s="2"/>
     </row>
-    <row r="772" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -50544,7 +50533,7 @@
       <c r="AF772" s="2"/>
       <c r="AG772" s="2"/>
     </row>
-    <row r="773" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -50598,7 +50587,7 @@
       <c r="AF773" s="2"/>
       <c r="AG773" s="2"/>
     </row>
-    <row r="774" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -50652,7 +50641,7 @@
       <c r="AF774" s="2"/>
       <c r="AG774" s="2"/>
     </row>
-    <row r="775" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <v>774</v>
       </c>
@@ -50706,7 +50695,7 @@
       <c r="AF775" s="2"/>
       <c r="AG775" s="2"/>
     </row>
-    <row r="776" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -50760,7 +50749,7 @@
       <c r="AF776" s="2"/>
       <c r="AG776" s="2"/>
     </row>
-    <row r="777" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -50814,7 +50803,7 @@
       <c r="AF777" s="2"/>
       <c r="AG777" s="2"/>
     </row>
-    <row r="778" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -50868,7 +50857,7 @@
       <c r="AF778" s="2"/>
       <c r="AG778" s="2"/>
     </row>
-    <row r="779" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -50922,7 +50911,7 @@
       <c r="AF779" s="2"/>
       <c r="AG779" s="2"/>
     </row>
-    <row r="780" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -50976,7 +50965,7 @@
       <c r="AF780" s="2"/>
       <c r="AG780" s="2"/>
     </row>
-    <row r="781" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -51030,7 +51019,7 @@
       <c r="AF781" s="2"/>
       <c r="AG781" s="2"/>
     </row>
-    <row r="782" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <v>781</v>
       </c>
@@ -51084,7 +51073,7 @@
       <c r="AF782" s="2"/>
       <c r="AG782" s="2"/>
     </row>
-    <row r="783" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <v>782</v>
       </c>
@@ -51138,7 +51127,7 @@
       <c r="AF783" s="2"/>
       <c r="AG783" s="2"/>
     </row>
-    <row r="784" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <v>783</v>
       </c>
@@ -51192,7 +51181,7 @@
       <c r="AF784" s="2"/>
       <c r="AG784" s="2"/>
     </row>
-    <row r="785" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <v>784</v>
       </c>
@@ -51249,7 +51238,7 @@
       <c r="AF785" s="2"/>
       <c r="AG785" s="2"/>
     </row>
-    <row r="786" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <v>785</v>
       </c>
@@ -51303,7 +51292,7 @@
       <c r="AF786" s="2"/>
       <c r="AG786" s="2"/>
     </row>
-    <row r="787" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <v>786</v>
       </c>
@@ -51357,7 +51346,7 @@
       <c r="AF787" s="2"/>
       <c r="AG787" s="2"/>
     </row>
-    <row r="788" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <v>787</v>
       </c>
@@ -51411,7 +51400,7 @@
       <c r="AF788" s="2"/>
       <c r="AG788" s="2"/>
     </row>
-    <row r="789" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <v>788</v>
       </c>
@@ -51465,7 +51454,7 @@
       <c r="AF789" s="2"/>
       <c r="AG789" s="2"/>
     </row>
-    <row r="790" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <v>789</v>
       </c>
@@ -51519,7 +51508,7 @@
       <c r="AF790" s="2"/>
       <c r="AG790" s="2"/>
     </row>
-    <row r="791" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <v>790</v>
       </c>
@@ -51573,7 +51562,7 @@
       <c r="AF791" s="2"/>
       <c r="AG791" s="2"/>
     </row>
-    <row r="792" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <v>791</v>
       </c>
@@ -51627,7 +51616,7 @@
       <c r="AF792" s="2"/>
       <c r="AG792" s="2"/>
     </row>
-    <row r="793" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <v>792</v>
       </c>
@@ -51681,7 +51670,7 @@
       <c r="AF793" s="2"/>
       <c r="AG793" s="2"/>
     </row>
-    <row r="794" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <v>793</v>
       </c>
@@ -51735,7 +51724,7 @@
       <c r="AF794" s="2"/>
       <c r="AG794" s="2"/>
     </row>
-    <row r="795" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>794</v>
       </c>
@@ -51789,7 +51778,7 @@
       <c r="AF795" s="2"/>
       <c r="AG795" s="2"/>
     </row>
-    <row r="796" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>795</v>
       </c>
@@ -51843,7 +51832,7 @@
       <c r="AF796" s="2"/>
       <c r="AG796" s="2"/>
     </row>
-    <row r="797" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <v>796</v>
       </c>
@@ -51897,7 +51886,7 @@
       <c r="AF797" s="2"/>
       <c r="AG797" s="2"/>
     </row>
-    <row r="798" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <v>797</v>
       </c>
@@ -51951,7 +51940,7 @@
       <c r="AF798" s="2"/>
       <c r="AG798" s="2"/>
     </row>
-    <row r="799" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>798</v>
       </c>
@@ -52005,7 +51994,7 @@
       <c r="AF799" s="2"/>
       <c r="AG799" s="2"/>
     </row>
-    <row r="800" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <v>799</v>
       </c>
@@ -52059,7 +52048,7 @@
       <c r="AF800" s="2"/>
       <c r="AG800" s="2"/>
     </row>
-    <row r="801" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>800</v>
       </c>
@@ -52113,7 +52102,7 @@
       <c r="AF801" s="2"/>
       <c r="AG801" s="2"/>
     </row>
-    <row r="802" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <v>801</v>
       </c>
@@ -52167,7 +52156,7 @@
       <c r="AF802" s="2"/>
       <c r="AG802" s="2"/>
     </row>
-    <row r="803" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <v>802</v>
       </c>
@@ -52221,7 +52210,7 @@
       <c r="AF803" s="2"/>
       <c r="AG803" s="2"/>
     </row>
-    <row r="804" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <v>803</v>
       </c>
@@ -52275,7 +52264,7 @@
       <c r="AF804" s="2"/>
       <c r="AG804" s="2"/>
     </row>
-    <row r="805" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>804</v>
       </c>
@@ -52329,7 +52318,7 @@
       <c r="AF805" s="2"/>
       <c r="AG805" s="2"/>
     </row>
-    <row r="806" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>805</v>
       </c>
@@ -52383,7 +52372,7 @@
       <c r="AF806" s="2"/>
       <c r="AG806" s="2"/>
     </row>
-    <row r="807" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>806</v>
       </c>
@@ -52437,7 +52426,7 @@
       <c r="AF807" s="2"/>
       <c r="AG807" s="2"/>
     </row>
-    <row r="808" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>807</v>
       </c>
@@ -52491,7 +52480,7 @@
       <c r="AF808" s="2"/>
       <c r="AG808" s="2"/>
     </row>
-    <row r="809" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <v>808</v>
       </c>
@@ -53193,7 +53182,7 @@
       <c r="AF821" s="2"/>
       <c r="AG821" s="2"/>
     </row>
-    <row r="822" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>821</v>
       </c>
@@ -53247,7 +53236,7 @@
       <c r="AF822" s="2"/>
       <c r="AG822" s="2"/>
     </row>
-    <row r="823" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>822</v>
       </c>
@@ -53301,7 +53290,7 @@
       <c r="AF823" s="2"/>
       <c r="AG823" s="2"/>
     </row>
-    <row r="824" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>823</v>
       </c>
@@ -53355,7 +53344,7 @@
       <c r="AF824" s="2"/>
       <c r="AG824" s="2"/>
     </row>
-    <row r="825" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>824</v>
       </c>
@@ -53409,7 +53398,7 @@
       <c r="AF825" s="2"/>
       <c r="AG825" s="2"/>
     </row>
-    <row r="826" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>825</v>
       </c>
@@ -53463,7 +53452,7 @@
       <c r="AF826" s="2"/>
       <c r="AG826" s="2"/>
     </row>
-    <row r="827" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>826</v>
       </c>
@@ -53517,7 +53506,7 @@
       <c r="AF827" s="2"/>
       <c r="AG827" s="2"/>
     </row>
-    <row r="828" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>827</v>
       </c>
@@ -53571,7 +53560,7 @@
       <c r="AF828" s="2"/>
       <c r="AG828" s="2"/>
     </row>
-    <row r="829" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>828</v>
       </c>
@@ -53625,7 +53614,7 @@
       <c r="AF829" s="2"/>
       <c r="AG829" s="2"/>
     </row>
-    <row r="830" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>829</v>
       </c>
@@ -53679,7 +53668,7 @@
       <c r="AF830" s="2"/>
       <c r="AG830" s="2"/>
     </row>
-    <row r="831" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>830</v>
       </c>
@@ -53733,7 +53722,7 @@
       <c r="AF831" s="2"/>
       <c r="AG831" s="2"/>
     </row>
-    <row r="832" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>831</v>
       </c>
@@ -53787,7 +53776,7 @@
       <c r="AF832" s="2"/>
       <c r="AG832" s="2"/>
     </row>
-    <row r="833" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <v>832</v>
       </c>
@@ -53841,7 +53830,7 @@
       <c r="AF833" s="2"/>
       <c r="AG833" s="2"/>
     </row>
-    <row r="834" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <v>833</v>
       </c>
@@ -53895,7 +53884,7 @@
       <c r="AF834" s="2"/>
       <c r="AG834" s="2"/>
     </row>
-    <row r="835" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <v>834</v>
       </c>
@@ -53949,7 +53938,7 @@
       <c r="AF835" s="2"/>
       <c r="AG835" s="2"/>
     </row>
-    <row r="836" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>835</v>
       </c>
@@ -54003,7 +53992,7 @@
       <c r="AF836" s="2"/>
       <c r="AG836" s="2"/>
     </row>
-    <row r="837" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>836</v>
       </c>
@@ -54057,7 +54046,7 @@
       <c r="AF837" s="2"/>
       <c r="AG837" s="2"/>
     </row>
-    <row r="838" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <v>837</v>
       </c>
@@ -54111,7 +54100,7 @@
       <c r="AF838" s="2"/>
       <c r="AG838" s="2"/>
     </row>
-    <row r="839" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <v>838</v>
       </c>
@@ -54165,7 +54154,7 @@
       <c r="AF839" s="2"/>
       <c r="AG839" s="2"/>
     </row>
-    <row r="840" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>839</v>
       </c>
@@ -54219,7 +54208,7 @@
       <c r="AF840" s="2"/>
       <c r="AG840" s="2"/>
     </row>
-    <row r="841" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
         <v>840</v>
       </c>
@@ -54273,7 +54262,7 @@
       <c r="AF841" s="2"/>
       <c r="AG841" s="2"/>
     </row>
-    <row r="842" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
         <v>841</v>
       </c>
@@ -54327,7 +54316,7 @@
       <c r="AF842" s="2"/>
       <c r="AG842" s="2"/>
     </row>
-    <row r="843" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>842</v>
       </c>
@@ -54381,7 +54370,7 @@
       <c r="AF843" s="2"/>
       <c r="AG843" s="2"/>
     </row>
-    <row r="844" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
         <v>843</v>
       </c>
@@ -54438,7 +54427,7 @@
       <c r="AF844" s="2"/>
       <c r="AG844" s="2"/>
     </row>
-    <row r="845" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>844</v>
       </c>
@@ -54495,7 +54484,7 @@
       <c r="AF845" s="2"/>
       <c r="AG845" s="2"/>
     </row>
-    <row r="846" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
         <v>845</v>
       </c>
@@ -54552,7 +54541,7 @@
       <c r="AF846" s="2"/>
       <c r="AG846" s="2"/>
     </row>
-    <row r="847" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
         <v>846</v>
       </c>
@@ -54609,7 +54598,7 @@
       <c r="AF847" s="2"/>
       <c r="AG847" s="2"/>
     </row>
-    <row r="848" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
         <v>847</v>
       </c>
@@ -54666,7 +54655,7 @@
       <c r="AF848" s="2"/>
       <c r="AG848" s="2"/>
     </row>
-    <row r="849" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
         <v>848</v>
       </c>
@@ -54720,7 +54709,7 @@
       <c r="AF849" s="2"/>
       <c r="AG849" s="2"/>
     </row>
-    <row r="850" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>849</v>
       </c>
@@ -54774,7 +54763,7 @@
       <c r="AF850" s="2"/>
       <c r="AG850" s="2"/>
     </row>
-    <row r="851" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
         <v>850</v>
       </c>
@@ -54828,7 +54817,7 @@
       <c r="AF851" s="2"/>
       <c r="AG851" s="2"/>
     </row>
-    <row r="852" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
         <v>851</v>
       </c>
@@ -54882,7 +54871,7 @@
       <c r="AF852" s="2"/>
       <c r="AG852" s="2"/>
     </row>
-    <row r="853" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>852</v>
       </c>
@@ -54936,7 +54925,7 @@
       <c r="AF853" s="2"/>
       <c r="AG853" s="2"/>
     </row>
-    <row r="854" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
         <v>853</v>
       </c>
@@ -54990,7 +54979,7 @@
       <c r="AF854" s="2"/>
       <c r="AG854" s="2"/>
     </row>
-    <row r="855" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
         <v>854</v>
       </c>
@@ -55044,7 +55033,7 @@
       <c r="AF855" s="2"/>
       <c r="AG855" s="2"/>
     </row>
-    <row r="856" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
         <v>855</v>
       </c>
@@ -55098,7 +55087,7 @@
       <c r="AF856" s="2"/>
       <c r="AG856" s="2"/>
     </row>
-    <row r="857" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
         <v>856</v>
       </c>
@@ -55152,7 +55141,7 @@
       <c r="AF857" s="2"/>
       <c r="AG857" s="2"/>
     </row>
-    <row r="858" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
         <v>857</v>
       </c>
@@ -55206,7 +55195,7 @@
       <c r="AF858" s="2"/>
       <c r="AG858" s="2"/>
     </row>
-    <row r="859" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
         <v>858</v>
       </c>
@@ -55260,7 +55249,7 @@
       <c r="AF859" s="2"/>
       <c r="AG859" s="2"/>
     </row>
-    <row r="860" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
         <v>859</v>
       </c>
@@ -55314,7 +55303,7 @@
       <c r="AF860" s="2"/>
       <c r="AG860" s="2"/>
     </row>
-    <row r="861" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
         <v>860</v>
       </c>
@@ -55368,7 +55357,7 @@
       <c r="AF861" s="2"/>
       <c r="AG861" s="2"/>
     </row>
-    <row r="862" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
         <v>861</v>
       </c>
@@ -55422,7 +55411,7 @@
       <c r="AF862" s="2"/>
       <c r="AG862" s="2"/>
     </row>
-    <row r="863" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
         <v>862</v>
       </c>
@@ -55476,7 +55465,7 @@
       <c r="AF863" s="2"/>
       <c r="AG863" s="2"/>
     </row>
-    <row r="864" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
         <v>863</v>
       </c>
@@ -55530,7 +55519,7 @@
       <c r="AF864" s="2"/>
       <c r="AG864" s="2"/>
     </row>
-    <row r="865" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>864</v>
       </c>
@@ -55584,7 +55573,7 @@
       <c r="AF865" s="2"/>
       <c r="AG865" s="2"/>
     </row>
-    <row r="866" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
         <v>865</v>
       </c>
@@ -55638,7 +55627,7 @@
       <c r="AF866" s="2"/>
       <c r="AG866" s="2"/>
     </row>
-    <row r="867" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
         <v>866</v>
       </c>
@@ -55692,7 +55681,7 @@
       <c r="AF867" s="2"/>
       <c r="AG867" s="2"/>
     </row>
-    <row r="868" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2">
         <v>867</v>
       </c>
@@ -55746,7 +55735,7 @@
       <c r="AF868" s="2"/>
       <c r="AG868" s="2"/>
     </row>
-    <row r="869" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2">
         <v>868</v>
       </c>
@@ -55800,7 +55789,7 @@
       <c r="AF869" s="2"/>
       <c r="AG869" s="2"/>
     </row>
-    <row r="870" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
         <v>869</v>
       </c>
@@ -55854,7 +55843,7 @@
       <c r="AF870" s="2"/>
       <c r="AG870" s="2"/>
     </row>
-    <row r="871" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
         <v>870</v>
       </c>
@@ -55908,7 +55897,7 @@
       <c r="AF871" s="2"/>
       <c r="AG871" s="2"/>
     </row>
-    <row r="872" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
         <v>871</v>
       </c>
@@ -55962,7 +55951,7 @@
       <c r="AF872" s="2"/>
       <c r="AG872" s="2"/>
     </row>
-    <row r="873" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
         <v>872</v>
       </c>
@@ -56016,7 +56005,7 @@
       <c r="AF873" s="2"/>
       <c r="AG873" s="2"/>
     </row>
-    <row r="874" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>873</v>
       </c>
@@ -56070,7 +56059,7 @@
       <c r="AF874" s="2"/>
       <c r="AG874" s="2"/>
     </row>
-    <row r="875" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
         <v>874</v>
       </c>
@@ -56124,7 +56113,7 @@
       <c r="AF875" s="2"/>
       <c r="AG875" s="2"/>
     </row>
-    <row r="876" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
         <v>875</v>
       </c>
@@ -56178,7 +56167,7 @@
       <c r="AF876" s="2"/>
       <c r="AG876" s="2"/>
     </row>
-    <row r="877" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
         <v>876</v>
       </c>
@@ -56232,7 +56221,7 @@
       <c r="AF877" s="2"/>
       <c r="AG877" s="2"/>
     </row>
-    <row r="878" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
         <v>877</v>
       </c>
@@ -56286,7 +56275,7 @@
       <c r="AF878" s="2"/>
       <c r="AG878" s="2"/>
     </row>
-    <row r="879" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
         <v>878</v>
       </c>
@@ -56340,7 +56329,7 @@
       <c r="AF879" s="2"/>
       <c r="AG879" s="2"/>
     </row>
-    <row r="880" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
         <v>879</v>
       </c>
@@ -56394,7 +56383,7 @@
       <c r="AF880" s="2"/>
       <c r="AG880" s="2"/>
     </row>
-    <row r="881" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
         <v>880</v>
       </c>
@@ -56448,7 +56437,7 @@
       <c r="AF881" s="2"/>
       <c r="AG881" s="2"/>
     </row>
-    <row r="882" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2">
         <v>881</v>
       </c>
@@ -56502,7 +56491,7 @@
       <c r="AF882" s="2"/>
       <c r="AG882" s="2"/>
     </row>
-    <row r="883" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>882</v>
       </c>
@@ -56556,7 +56545,7 @@
       <c r="AF883" s="2"/>
       <c r="AG883" s="2"/>
     </row>
-    <row r="884" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>883</v>
       </c>
@@ -56610,7 +56599,7 @@
       <c r="AF884" s="2"/>
       <c r="AG884" s="2"/>
     </row>
-    <row r="885" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>884</v>
       </c>
@@ -56664,7 +56653,7 @@
       <c r="AF885" s="2"/>
       <c r="AG885" s="2"/>
     </row>
-    <row r="886" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>885</v>
       </c>
@@ -56718,7 +56707,7 @@
       <c r="AF886" s="2"/>
       <c r="AG886" s="2"/>
     </row>
-    <row r="887" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>886</v>
       </c>
@@ -56772,7 +56761,7 @@
       <c r="AF887" s="2"/>
       <c r="AG887" s="2"/>
     </row>
-    <row r="888" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>887</v>
       </c>
@@ -56826,7 +56815,7 @@
       <c r="AF888" s="2"/>
       <c r="AG888" s="2"/>
     </row>
-    <row r="889" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>888</v>
       </c>
@@ -56880,7 +56869,7 @@
       <c r="AF889" s="2"/>
       <c r="AG889" s="2"/>
     </row>
-    <row r="890" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>889</v>
       </c>
@@ -56934,7 +56923,7 @@
       <c r="AF890" s="2"/>
       <c r="AG890" s="2"/>
     </row>
-    <row r="891" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>890</v>
       </c>
@@ -56988,7 +56977,7 @@
       <c r="AF891" s="2"/>
       <c r="AG891" s="2"/>
     </row>
-    <row r="892" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>891</v>
       </c>
@@ -57042,7 +57031,7 @@
       <c r="AF892" s="2"/>
       <c r="AG892" s="2"/>
     </row>
-    <row r="893" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>892</v>
       </c>
@@ -57096,7 +57085,7 @@
       <c r="AF893" s="2"/>
       <c r="AG893" s="2"/>
     </row>
-    <row r="894" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>893</v>
       </c>
@@ -57150,7 +57139,7 @@
       <c r="AF894" s="2"/>
       <c r="AG894" s="2"/>
     </row>
-    <row r="895" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>894</v>
       </c>
@@ -57204,7 +57193,7 @@
       <c r="AF895" s="2"/>
       <c r="AG895" s="2"/>
     </row>
-    <row r="896" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>895</v>
       </c>
@@ -57258,7 +57247,7 @@
       <c r="AF896" s="2"/>
       <c r="AG896" s="2"/>
     </row>
-    <row r="897" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>896</v>
       </c>
@@ -57312,7 +57301,7 @@
       <c r="AF897" s="2"/>
       <c r="AG897" s="2"/>
     </row>
-    <row r="898" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>897</v>
       </c>
@@ -57366,7 +57355,7 @@
       <c r="AF898" s="2"/>
       <c r="AG898" s="2"/>
     </row>
-    <row r="899" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>898</v>
       </c>
@@ -57420,12 +57409,12 @@
       <c r="AF899" s="2"/>
       <c r="AG899" s="2"/>
     </row>
-    <row r="900" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>899</v>
       </c>
       <c r="B900" s="2" t="str">
-        <f t="shared" ref="B900:B918" si="14">TEXT(C900, "mm/dd/yyy")</f>
+        <f t="shared" ref="B900:B919" si="14">TEXT(C900, "mm/dd/yyy")</f>
         <v>10/13/2018</v>
       </c>
       <c r="C900" s="2">
@@ -57474,7 +57463,7 @@
       <c r="AF900" s="2"/>
       <c r="AG900" s="2"/>
     </row>
-    <row r="901" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
         <v>900</v>
       </c>
@@ -57528,7 +57517,7 @@
       <c r="AF901" s="2"/>
       <c r="AG901" s="2"/>
     </row>
-    <row r="902" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
         <v>901</v>
       </c>
@@ -57582,7 +57571,7 @@
       <c r="AF902" s="2"/>
       <c r="AG902" s="2"/>
     </row>
-    <row r="903" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
         <v>902</v>
       </c>
@@ -57636,7 +57625,7 @@
       <c r="AF903" s="2"/>
       <c r="AG903" s="2"/>
     </row>
-    <row r="904" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
         <v>903</v>
       </c>
@@ -57690,7 +57679,7 @@
       <c r="AF904" s="2"/>
       <c r="AG904" s="2"/>
     </row>
-    <row r="905" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
         <v>904</v>
       </c>
@@ -57744,7 +57733,7 @@
       <c r="AF905" s="2"/>
       <c r="AG905" s="2"/>
     </row>
-    <row r="906" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
         <v>905</v>
       </c>
@@ -57798,7 +57787,7 @@
       <c r="AF906" s="2"/>
       <c r="AG906" s="2"/>
     </row>
-    <row r="907" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
         <v>906</v>
       </c>
@@ -57852,7 +57841,7 @@
       <c r="AF907" s="2"/>
       <c r="AG907" s="2"/>
     </row>
-    <row r="908" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
         <v>907</v>
       </c>
@@ -57906,7 +57895,7 @@
       <c r="AF908" s="2"/>
       <c r="AG908" s="2"/>
     </row>
-    <row r="909" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>908</v>
       </c>
@@ -57960,7 +57949,7 @@
       <c r="AF909" s="2"/>
       <c r="AG909" s="2"/>
     </row>
-    <row r="910" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
         <v>909</v>
       </c>
@@ -58014,7 +58003,7 @@
       <c r="AF910" s="2"/>
       <c r="AG910" s="2"/>
     </row>
-    <row r="911" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
         <v>910</v>
       </c>
@@ -58068,7 +58057,7 @@
       <c r="AF911" s="2"/>
       <c r="AG911" s="2"/>
     </row>
-    <row r="912" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
         <v>911</v>
       </c>
@@ -58122,7 +58111,7 @@
       <c r="AF912" s="2"/>
       <c r="AG912" s="2"/>
     </row>
-    <row r="913" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
         <v>912</v>
       </c>
@@ -58176,7 +58165,7 @@
       <c r="AF913" s="2"/>
       <c r="AG913" s="2"/>
     </row>
-    <row r="914" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
         <v>913</v>
       </c>
@@ -58230,7 +58219,7 @@
       <c r="AF914" s="2"/>
       <c r="AG914" s="2"/>
     </row>
-    <row r="915" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>914</v>
       </c>
@@ -58284,7 +58273,7 @@
       <c r="AF915" s="2"/>
       <c r="AG915" s="2"/>
     </row>
-    <row r="916" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
         <v>915</v>
       </c>
@@ -58338,7 +58327,7 @@
       <c r="AF916" s="2"/>
       <c r="AG916" s="2"/>
     </row>
-    <row r="917" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
         <v>916</v>
       </c>
@@ -58392,7 +58381,7 @@
       <c r="AF917" s="2"/>
       <c r="AG917" s="2"/>
     </row>
-    <row r="918" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
         <v>917</v>
       </c>
@@ -58446,8 +58435,66 @@
       <c r="AF918" s="2"/>
       <c r="AG918" s="2"/>
     </row>
-    <row r="919" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C919" s="1"/>
+    <row r="919" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A919" s="2">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>10/22/2018</v>
+      </c>
+      <c r="C919" s="4">
+        <v>43395</v>
+      </c>
+      <c r="D919" t="s">
+        <v>29</v>
+      </c>
+      <c r="E919" t="s">
+        <v>30</v>
+      </c>
+      <c r="F919">
+        <v>2018</v>
+      </c>
+      <c r="G919" t="s">
+        <v>31</v>
+      </c>
+      <c r="H919" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I919"/>
+      <c r="J919" t="s">
+        <v>33</v>
+      </c>
+      <c r="K919" t="s">
+        <v>63</v>
+      </c>
+      <c r="L919"/>
+      <c r="M919" t="s">
+        <v>2265</v>
+      </c>
+      <c r="N919" t="s">
+        <v>1847</v>
+      </c>
+      <c r="O919"/>
+      <c r="P919"/>
+      <c r="Q919"/>
+      <c r="R919" t="s">
+        <v>2280</v>
+      </c>
+      <c r="S919"/>
+      <c r="T919"/>
+      <c r="U919"/>
+      <c r="V919"/>
+      <c r="W919"/>
+      <c r="X919"/>
+      <c r="Y919"/>
+      <c r="Z919"/>
+      <c r="AA919"/>
+      <c r="AB919"/>
+      <c r="AC919"/>
+      <c r="AD919" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="920" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="1"/>
@@ -58681,51 +58728,101 @@
       <c r="C996" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD918">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Done"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="Binhduong"/>
-        <filter val="Dongnai"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="J757:J996">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="On-Hold">
+  <autoFilter ref="A1:AD918"/>
+  <conditionalFormatting sqref="J757:J918 J920:J996 L919">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH(("On-Hold"),(J757))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J757:J996">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Setting">
+  <conditionalFormatting sqref="J757:J918 J920:J996 L919">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH(("Setting"),(J757))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J757:J996">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Done">
+  <conditionalFormatting sqref="J757:J918 J920:J996 L919">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(J757))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J733:J756">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="On-Hold">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="On-Hold">
       <formula>NOT(ISERROR(SEARCH("On-Hold",J733)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Setting">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Setting">
       <formula>NOT(ISERROR(SEARCH("Setting",J733)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J733)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H733:H756">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>43395</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="AD1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>